--- a/Hardware/Project BOM.xlsx
+++ b/Hardware/Project BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\MSP-Debugger\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B431B16-5F0A-4F3A-AD1A-D5D716FFDFA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94331084-5BEF-4942-885C-4D2FB81F1088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15585" yWindow="0" windowWidth="22815" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19215" yWindow="15" windowWidth="19185" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -510,11 +510,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -832,11 +832,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K996"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
@@ -851,7 +851,7 @@
     <col min="11" max="11" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.25" customHeight="1">
+    <row r="1" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -872,14 +872,14 @@
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:11" ht="21" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
+    <row r="2" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
@@ -887,23 +887,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="7">
         <f>SUM(K5:K996)</f>
-        <v>43.49333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="14.25" customHeight="1">
+        <v>43.593330000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -938,7 +938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.25" customHeight="1">
+    <row r="5" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>1</v>
       </c>
@@ -951,7 +951,7 @@
       <c r="D5" s="27">
         <v>28.59</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>85</v>
       </c>
       <c r="F5" s="29" t="s">
@@ -975,9 +975,9 @@
         <v>28.59</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1">
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>22</v>
@@ -1005,14 +1005,14 @@
       </c>
       <c r="J6" s="14">
         <f>A6*I6</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="7">
         <f>J6*D6</f>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="14.25" customHeight="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>1</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="D7" s="27">
         <v>1.03</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="31" t="s">
         <v>86</v>
       </c>
       <c r="F7" s="29" t="s">
@@ -1049,7 +1049,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.25" customHeight="1">
+    <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>5</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>1.1500000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1">
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>3</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.25" customHeight="1">
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>2</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.25" customHeight="1">
+    <row r="11" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>1</v>
       </c>
@@ -1197,7 +1197,7 @@
         <v>2.02</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1">
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.25" customHeight="1">
+    <row r="13" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>1.41</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.25" customHeight="1">
+    <row r="14" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>9.7519999999999996E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.25" customHeight="1">
+    <row r="15" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>1</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>0.27581</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1">
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>1</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.25" customHeight="1">
+    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>2</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.25" customHeight="1">
+    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>1</v>
       </c>
@@ -1432,7 +1432,7 @@
       <c r="D18" s="27">
         <v>2.2599999999999998</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="31" t="s">
         <v>80</v>
       </c>
       <c r="F18" s="11" t="s">
@@ -1456,11 +1456,11 @@
         <v>2.2599999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.25" customHeight="1">
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="29"/>
       <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="D19" s="27"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.25" customHeight="1">
+    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.25" customHeight="1">
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -1513,12 +1513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.25" customHeight="1">
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
       <c r="D22" s="27"/>
-      <c r="E22" s="33"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
@@ -1527,17 +1527,17 @@
         <f>A22*I22</f>
         <v>0</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="28">
         <f>J22*D22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="14.25" customHeight="1">
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
       <c r="D23" s="27"/>
-      <c r="E23" s="33"/>
+      <c r="E23" s="31"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -1546,12 +1546,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="28">
         <f>J23*D23</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.25" customHeight="1">
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.25" customHeight="1">
+    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.25" customHeight="1">
+    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1">
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.25" customHeight="1">
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.25" customHeight="1">
+    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.25" customHeight="1">
+    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
@@ -1684,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.25" customHeight="1">
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.25" customHeight="1">
+    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="14.25" customHeight="1">
+    <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="14.25" customHeight="1">
+    <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="29"/>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1">
+    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="29"/>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.25" customHeight="1">
+    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="29"/>
@@ -1798,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.25" customHeight="1">
+    <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="29"/>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.25" customHeight="1">
+    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="29"/>
       <c r="B38" s="29"/>
       <c r="C38" s="29"/>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.25" customHeight="1">
+    <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="29"/>
       <c r="B39" s="29"/>
       <c r="C39" s="29"/>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.25" customHeight="1">
+    <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="29"/>
       <c r="B40" s="29"/>
       <c r="C40" s="29"/>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.25" customHeight="1">
+    <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="29"/>
       <c r="B41" s="29"/>
       <c r="C41" s="29"/>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="14.25" customHeight="1">
+    <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="29"/>
       <c r="B42" s="29"/>
       <c r="C42" s="29"/>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="14.25" customHeight="1">
+    <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="29"/>
       <c r="B43" s="29"/>
       <c r="C43" s="29"/>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="14.25" customHeight="1">
+    <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="29"/>
       <c r="B44" s="29"/>
       <c r="C44" s="29"/>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.25" customHeight="1">
+    <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="29"/>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.25" customHeight="1">
+    <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="29"/>
       <c r="B46" s="29"/>
       <c r="C46" s="29"/>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.25" customHeight="1">
+    <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="29"/>
       <c r="B47" s="29"/>
       <c r="C47" s="29"/>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.25" customHeight="1">
+    <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="29"/>
       <c r="B48" s="29"/>
       <c r="C48" s="29"/>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.25" customHeight="1">
+    <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="29"/>
       <c r="B49" s="29"/>
       <c r="C49" s="29"/>
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.25" customHeight="1">
+    <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="29"/>
       <c r="B50" s="29"/>
       <c r="C50" s="29"/>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14.25" customHeight="1">
+    <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="29"/>
       <c r="B51" s="29"/>
       <c r="C51" s="29"/>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14.25" customHeight="1">
+    <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="29"/>
       <c r="B52" s="29"/>
       <c r="C52" s="29"/>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14.25" customHeight="1">
+    <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="29"/>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14.25" customHeight="1">
+    <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="29"/>
       <c r="B54" s="29"/>
       <c r="C54" s="29"/>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14.25" customHeight="1">
+    <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="29"/>
       <c r="B55" s="29"/>
       <c r="C55" s="29"/>
@@ -2159,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14.25" customHeight="1">
+    <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="29"/>
       <c r="B56" s="29"/>
       <c r="C56" s="29"/>
@@ -2178,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14.25" customHeight="1">
+    <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="29"/>
       <c r="B57" s="29"/>
       <c r="C57" s="29"/>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14.25" customHeight="1">
+    <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="29"/>
       <c r="B58" s="29"/>
       <c r="C58" s="29"/>
@@ -2216,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14.25" customHeight="1">
+    <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="29"/>
       <c r="B59" s="29"/>
       <c r="C59" s="29"/>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14.25" customHeight="1">
+    <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="29"/>
       <c r="B60" s="29"/>
       <c r="C60" s="29"/>
@@ -2254,7 +2254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14.25" customHeight="1">
+    <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="29"/>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14.25" customHeight="1">
+    <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="29"/>
       <c r="B62" s="29"/>
       <c r="C62" s="29"/>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="14.25" customHeight="1">
+    <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="29"/>
       <c r="B63" s="29"/>
       <c r="C63" s="29"/>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="14.25" customHeight="1">
+    <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="29"/>
       <c r="B64" s="29"/>
       <c r="C64" s="29"/>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14.25" customHeight="1">
+    <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="29"/>
       <c r="B65" s="29"/>
       <c r="C65" s="29"/>
@@ -2349,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14.25" customHeight="1">
+    <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="29"/>
       <c r="B66" s="29"/>
       <c r="C66" s="29"/>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14.25" customHeight="1">
+    <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="29"/>
       <c r="B67" s="29"/>
       <c r="C67" s="29"/>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14.25" customHeight="1">
+    <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="29"/>
       <c r="B68" s="29"/>
       <c r="C68" s="29"/>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="14.25" customHeight="1">
+    <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="29"/>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="14.25" customHeight="1">
+    <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="29"/>
       <c r="B70" s="29"/>
       <c r="C70" s="29"/>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="14.25" customHeight="1">
+    <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="29"/>
       <c r="B71" s="29"/>
       <c r="C71" s="29"/>
@@ -2463,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="14.25" customHeight="1">
+    <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="29"/>
       <c r="B72" s="29"/>
       <c r="C72" s="29"/>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="14.25" customHeight="1">
+    <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="29"/>
       <c r="B73" s="29"/>
       <c r="C73" s="29"/>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="14.25" customHeight="1">
+    <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="29"/>
       <c r="B74" s="29"/>
       <c r="C74" s="29"/>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="14.25" customHeight="1">
+    <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="29"/>
       <c r="B75" s="29"/>
       <c r="C75" s="29"/>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="14.25" customHeight="1">
+    <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="29"/>
       <c r="B76" s="29"/>
       <c r="C76" s="29"/>
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="14.25" customHeight="1">
+    <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="29"/>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="14.25" customHeight="1">
+    <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="29"/>
       <c r="B78" s="29"/>
       <c r="C78" s="29"/>
@@ -2596,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="14.25" customHeight="1">
+    <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="29"/>
       <c r="B79" s="29"/>
       <c r="C79" s="29"/>
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="14.25" customHeight="1">
+    <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="29"/>
       <c r="B80" s="29"/>
       <c r="C80" s="29"/>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="14.25" customHeight="1">
+    <row r="81" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="29"/>
       <c r="B81" s="29"/>
       <c r="C81" s="29"/>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="14.25" customHeight="1">
+    <row r="82" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="29"/>
       <c r="B82" s="29"/>
       <c r="C82" s="29"/>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="14.25" customHeight="1">
+    <row r="83" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="29"/>
       <c r="B83" s="29"/>
       <c r="C83" s="29"/>
@@ -2691,7 +2691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="14.25" customHeight="1">
+    <row r="84" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="29"/>
       <c r="B84" s="29"/>
       <c r="C84" s="29"/>
@@ -2710,7 +2710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="14.25" customHeight="1">
+    <row r="85" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="29"/>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="14.25" customHeight="1">
+    <row r="86" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="29"/>
       <c r="B86" s="29"/>
       <c r="C86" s="29"/>
@@ -2748,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="14.25" customHeight="1">
+    <row r="87" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="29"/>
       <c r="B87" s="29"/>
       <c r="C87" s="29"/>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="14.25" customHeight="1">
+    <row r="88" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="29"/>
       <c r="B88" s="29"/>
       <c r="C88" s="29"/>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="14.25" customHeight="1">
+    <row r="89" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="29"/>
       <c r="B89" s="29"/>
       <c r="C89" s="29"/>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="14.25" customHeight="1">
+    <row r="90" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="29"/>
       <c r="B90" s="29"/>
       <c r="C90" s="29"/>
@@ -2824,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="14.25" customHeight="1">
+    <row r="91" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="29"/>
       <c r="B91" s="29"/>
       <c r="C91" s="29"/>
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="14.25" customHeight="1">
+    <row r="92" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="29"/>
       <c r="B92" s="29"/>
       <c r="C92" s="29"/>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="14.25" customHeight="1">
+    <row r="93" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="29"/>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="14.25" customHeight="1">
+    <row r="94" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="29"/>
       <c r="B94" s="29"/>
       <c r="C94" s="29"/>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="14.25" customHeight="1">
+    <row r="95" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="29"/>
       <c r="B95" s="29"/>
       <c r="C95" s="29"/>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="14.25" customHeight="1">
+    <row r="96" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="29"/>
       <c r="B96" s="29"/>
       <c r="C96" s="29"/>
@@ -2938,7 +2938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="14.25" customHeight="1">
+    <row r="97" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="29"/>
       <c r="B97" s="29"/>
       <c r="C97" s="29"/>
@@ -2957,7 +2957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="14.25" customHeight="1">
+    <row r="98" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="29"/>
       <c r="B98" s="29"/>
       <c r="C98" s="29"/>
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="14.25" customHeight="1">
+    <row r="99" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="29"/>
       <c r="B99" s="29"/>
       <c r="C99" s="29"/>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="14.25" customHeight="1">
+    <row r="100" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="29"/>
       <c r="B100" s="29"/>
       <c r="C100" s="29"/>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="14.25" customHeight="1">
+    <row r="101" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="29"/>
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="14.25" customHeight="1">
+    <row r="102" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="29"/>
       <c r="B102" s="29"/>
       <c r="C102" s="29"/>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="14.25" customHeight="1">
+    <row r="103" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="29"/>
       <c r="B103" s="29"/>
       <c r="C103" s="29"/>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="14.25" customHeight="1">
+    <row r="104" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="29"/>
       <c r="B104" s="29"/>
       <c r="C104" s="29"/>
@@ -3090,7 +3090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="14.25" customHeight="1">
+    <row r="105" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="29"/>
       <c r="B105" s="29"/>
       <c r="C105" s="29"/>
@@ -3109,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="14.25" customHeight="1">
+    <row r="106" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="29"/>
       <c r="B106" s="29"/>
       <c r="C106" s="29"/>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="14.25" customHeight="1">
+    <row r="107" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="29"/>
       <c r="B107" s="29"/>
       <c r="C107" s="29"/>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="14.25" customHeight="1">
+    <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="29"/>
       <c r="B108" s="29"/>
       <c r="C108" s="29"/>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="14.25" customHeight="1">
+    <row r="109" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="29"/>
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
@@ -3185,7 +3185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="14.25" customHeight="1">
+    <row r="110" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="29"/>
       <c r="B110" s="29"/>
       <c r="C110" s="29"/>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="14.25" customHeight="1">
+    <row r="111" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="29"/>
       <c r="B111" s="29"/>
       <c r="C111" s="29"/>
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="14.25" customHeight="1">
+    <row r="112" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="29"/>
       <c r="B112" s="29"/>
       <c r="C112" s="29"/>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="14.25" customHeight="1">
+    <row r="113" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="29"/>
       <c r="B113" s="29"/>
       <c r="C113" s="29"/>
@@ -3261,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" ht="14.25" customHeight="1">
+    <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="29"/>
       <c r="B114" s="29"/>
       <c r="C114" s="29"/>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="14.25" customHeight="1">
+    <row r="115" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="29"/>
       <c r="B115" s="29"/>
       <c r="C115" s="29"/>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" ht="14.25" customHeight="1">
+    <row r="116" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="29"/>
       <c r="B116" s="29"/>
       <c r="C116" s="29"/>
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="14.25" customHeight="1">
+    <row r="117" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="29"/>
       <c r="B117" s="29"/>
       <c r="C117" s="29"/>
@@ -3337,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:11" ht="14.25" customHeight="1">
+    <row r="118" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="29"/>
       <c r="B118" s="29"/>
       <c r="C118" s="29"/>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="14.25" customHeight="1">
+    <row r="119" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="29"/>
       <c r="B119" s="29"/>
       <c r="C119" s="29"/>
@@ -3375,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="14.25" customHeight="1">
+    <row r="120" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="29"/>
       <c r="B120" s="29"/>
       <c r="C120" s="29"/>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="14.25" customHeight="1">
+    <row r="121" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="29"/>
       <c r="B121" s="29"/>
       <c r="C121" s="29"/>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="14.25" customHeight="1">
+    <row r="122" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="29"/>
       <c r="B122" s="29"/>
       <c r="C122" s="29"/>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:11" ht="14.25" customHeight="1">
+    <row r="123" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="29"/>
       <c r="B123" s="29"/>
       <c r="C123" s="29"/>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:11" ht="14.25" customHeight="1">
+    <row r="124" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="29"/>
       <c r="B124" s="29"/>
       <c r="C124" s="29"/>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:11" ht="14.25" customHeight="1">
+    <row r="125" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="29"/>
       <c r="B125" s="29"/>
       <c r="C125" s="29"/>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:11" ht="14.25" customHeight="1">
+    <row r="126" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="29"/>
       <c r="B126" s="29"/>
       <c r="C126" s="29"/>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:11" ht="14.25" customHeight="1">
+    <row r="127" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="29"/>
       <c r="B127" s="29"/>
       <c r="C127" s="29"/>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:11" ht="14.25" customHeight="1">
+    <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="29"/>
       <c r="B128" s="29"/>
       <c r="C128" s="29"/>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:11" ht="14.25" customHeight="1">
+    <row r="129" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="29"/>
       <c r="B129" s="29"/>
       <c r="C129" s="29"/>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:11" ht="14.25" customHeight="1">
+    <row r="130" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="29"/>
       <c r="B130" s="29"/>
       <c r="C130" s="29"/>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:11" ht="14.25" customHeight="1">
+    <row r="131" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="29"/>
       <c r="B131" s="29"/>
       <c r="C131" s="29"/>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:11" ht="14.25" customHeight="1">
+    <row r="132" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="29"/>
       <c r="B132" s="29"/>
       <c r="C132" s="29"/>
@@ -3622,7 +3622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:11" ht="14.25" customHeight="1">
+    <row r="133" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="29"/>
       <c r="B133" s="29"/>
       <c r="C133" s="29"/>
@@ -3641,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:11" ht="14.25" customHeight="1">
+    <row r="134" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="29"/>
       <c r="B134" s="29"/>
       <c r="C134" s="29"/>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:11" ht="14.25" customHeight="1">
+    <row r="135" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="29"/>
       <c r="B135" s="29"/>
       <c r="C135" s="29"/>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:11" ht="14.25" customHeight="1">
+    <row r="136" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="29"/>
       <c r="B136" s="29"/>
       <c r="C136" s="29"/>
@@ -3698,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:11" ht="14.25" customHeight="1">
+    <row r="137" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="29"/>
       <c r="B137" s="29"/>
       <c r="C137" s="29"/>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:11" ht="14.25" customHeight="1">
+    <row r="138" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="29"/>
       <c r="B138" s="29"/>
       <c r="C138" s="29"/>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:11" ht="14.25" customHeight="1">
+    <row r="139" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="29"/>
       <c r="B139" s="29"/>
       <c r="C139" s="29"/>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:11" ht="14.25" customHeight="1">
+    <row r="140" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="29"/>
       <c r="B140" s="29"/>
       <c r="C140" s="29"/>
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" ht="14.25" customHeight="1">
+    <row r="141" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="29"/>
       <c r="B141" s="29"/>
       <c r="C141" s="29"/>
@@ -3793,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:11" ht="14.25" customHeight="1">
+    <row r="142" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="29"/>
       <c r="B142" s="29"/>
       <c r="C142" s="29"/>
@@ -3812,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:11" ht="14.25" customHeight="1">
+    <row r="143" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="29"/>
       <c r="B143" s="29"/>
       <c r="C143" s="29"/>
@@ -3831,7 +3831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:11" ht="14.25" customHeight="1">
+    <row r="144" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="29"/>
       <c r="B144" s="29"/>
       <c r="C144" s="29"/>
@@ -3850,7 +3850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="14.25" customHeight="1">
+    <row r="145" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="29"/>
       <c r="B145" s="29"/>
       <c r="C145" s="29"/>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="14.25" customHeight="1">
+    <row r="146" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="29"/>
       <c r="B146" s="29"/>
       <c r="C146" s="29"/>
@@ -3888,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="14.25" customHeight="1">
+    <row r="147" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="29"/>
       <c r="B147" s="29"/>
       <c r="C147" s="29"/>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="14.25" customHeight="1">
+    <row r="148" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="29"/>
       <c r="B148" s="29"/>
       <c r="C148" s="29"/>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="14.25" customHeight="1">
+    <row r="149" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="29"/>
       <c r="B149" s="29"/>
       <c r="C149" s="29"/>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:11" ht="14.25" customHeight="1">
+    <row r="150" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="29"/>
       <c r="B150" s="29"/>
       <c r="C150" s="29"/>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:11" ht="14.25" customHeight="1">
+    <row r="151" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="29"/>
       <c r="B151" s="29"/>
       <c r="C151" s="29"/>
@@ -3983,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:11" ht="14.25" customHeight="1">
+    <row r="152" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="29"/>
       <c r="B152" s="29"/>
       <c r="C152" s="29"/>
@@ -4002,7 +4002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:11" ht="14.25" customHeight="1">
+    <row r="153" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="29"/>
       <c r="B153" s="29"/>
       <c r="C153" s="29"/>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" ht="14.25" customHeight="1">
+    <row r="154" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="29"/>
       <c r="B154" s="29"/>
       <c r="C154" s="29"/>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:11" ht="14.25" customHeight="1">
+    <row r="155" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="29"/>
       <c r="B155" s="29"/>
       <c r="C155" s="29"/>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:11" ht="14.25" customHeight="1">
+    <row r="156" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="29"/>
       <c r="B156" s="29"/>
       <c r="C156" s="29"/>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:11" ht="14.25" customHeight="1">
+    <row r="157" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="29"/>
       <c r="B157" s="29"/>
       <c r="C157" s="29"/>
@@ -4097,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:11" ht="14.25" customHeight="1">
+    <row r="158" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="29"/>
       <c r="B158" s="29"/>
       <c r="C158" s="29"/>
@@ -4116,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:11" ht="14.25" customHeight="1">
+    <row r="159" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="29"/>
       <c r="B159" s="29"/>
       <c r="C159" s="29"/>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:11" ht="14.25" customHeight="1">
+    <row r="160" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="29"/>
       <c r="B160" s="29"/>
       <c r="C160" s="29"/>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:11" ht="14.25" customHeight="1">
+    <row r="161" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="29"/>
       <c r="B161" s="29"/>
       <c r="C161" s="29"/>
@@ -4173,7 +4173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" ht="14.25" customHeight="1">
+    <row r="162" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="29"/>
       <c r="B162" s="29"/>
       <c r="C162" s="29"/>
@@ -4192,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:11" ht="14.25" customHeight="1">
+    <row r="163" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="29"/>
       <c r="B163" s="29"/>
       <c r="C163" s="29"/>
@@ -4211,7 +4211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:11" ht="14.25" customHeight="1">
+    <row r="164" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="29"/>
       <c r="B164" s="29"/>
       <c r="C164" s="29"/>
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:11" ht="14.25" customHeight="1">
+    <row r="165" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="29"/>
       <c r="B165" s="29"/>
       <c r="C165" s="29"/>
@@ -4249,7 +4249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:11" ht="14.25" customHeight="1">
+    <row r="166" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="29"/>
       <c r="B166" s="29"/>
       <c r="C166" s="29"/>
@@ -4268,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:11" ht="14.25" customHeight="1">
+    <row r="167" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="29"/>
       <c r="B167" s="29"/>
       <c r="C167" s="29"/>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:11" ht="14.25" customHeight="1">
+    <row r="168" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="29"/>
       <c r="B168" s="29"/>
       <c r="C168" s="29"/>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:11" ht="14.25" customHeight="1">
+    <row r="169" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="29"/>
       <c r="B169" s="29"/>
       <c r="C169" s="29"/>
@@ -4325,7 +4325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:11" ht="14.25" customHeight="1">
+    <row r="170" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="29"/>
       <c r="B170" s="29"/>
       <c r="C170" s="29"/>
@@ -4344,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:11" ht="14.25" customHeight="1">
+    <row r="171" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="29"/>
       <c r="B171" s="29"/>
       <c r="C171" s="29"/>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:11" ht="14.25" customHeight="1">
+    <row r="172" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="29"/>
       <c r="B172" s="29"/>
       <c r="C172" s="29"/>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:11" ht="14.25" customHeight="1">
+    <row r="173" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="29"/>
       <c r="B173" s="29"/>
       <c r="C173" s="29"/>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:11" ht="14.25" customHeight="1">
+    <row r="174" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="29"/>
       <c r="B174" s="29"/>
       <c r="C174" s="29"/>
@@ -4420,7 +4420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:11" ht="14.25" customHeight="1">
+    <row r="175" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="29"/>
       <c r="B175" s="29"/>
       <c r="C175" s="29"/>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:11" ht="14.25" customHeight="1">
+    <row r="176" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="29"/>
       <c r="B176" s="29"/>
       <c r="C176" s="29"/>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="14.25" customHeight="1">
+    <row r="177" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="29"/>
       <c r="B177" s="29"/>
       <c r="C177" s="29"/>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:11" ht="14.25" customHeight="1">
+    <row r="178" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="29"/>
       <c r="B178" s="29"/>
       <c r="C178" s="29"/>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="14.25" customHeight="1">
+    <row r="179" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="29"/>
       <c r="B179" s="29"/>
       <c r="C179" s="29"/>
@@ -4515,7 +4515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="14.25" customHeight="1">
+    <row r="180" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="29"/>
       <c r="B180" s="29"/>
       <c r="C180" s="29"/>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="14.25" customHeight="1">
+    <row r="181" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="29"/>
       <c r="B181" s="29"/>
       <c r="C181" s="29"/>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="14.25" customHeight="1">
+    <row r="182" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="29"/>
       <c r="B182" s="29"/>
       <c r="C182" s="29"/>
@@ -4572,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" ht="14.25" customHeight="1">
+    <row r="183" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="29"/>
       <c r="B183" s="29"/>
       <c r="C183" s="29"/>
@@ -4591,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="14.25" customHeight="1">
+    <row r="184" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="29"/>
       <c r="B184" s="29"/>
       <c r="C184" s="29"/>
@@ -4610,7 +4610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="14.25" customHeight="1">
+    <row r="185" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="29"/>
       <c r="B185" s="29"/>
       <c r="C185" s="29"/>
@@ -4629,7 +4629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:11" ht="14.25" customHeight="1">
+    <row r="186" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="29"/>
       <c r="B186" s="29"/>
       <c r="C186" s="29"/>
@@ -4648,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="14.25" customHeight="1">
+    <row r="187" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="29"/>
       <c r="B187" s="29"/>
       <c r="C187" s="29"/>
@@ -4667,7 +4667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="14.25" customHeight="1">
+    <row r="188" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="29"/>
       <c r="B188" s="29"/>
       <c r="C188" s="29"/>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="14.25" customHeight="1">
+    <row r="189" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="29"/>
       <c r="B189" s="29"/>
       <c r="C189" s="29"/>
@@ -4705,7 +4705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="14.25" customHeight="1">
+    <row r="190" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="29"/>
       <c r="B190" s="29"/>
       <c r="C190" s="29"/>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:11" ht="14.25" customHeight="1">
+    <row r="191" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="29"/>
       <c r="B191" s="29"/>
       <c r="C191" s="29"/>
@@ -4743,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="14.25" customHeight="1">
+    <row r="192" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="29"/>
       <c r="B192" s="29"/>
       <c r="C192" s="29"/>
@@ -4762,7 +4762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:11" ht="14.25" customHeight="1">
+    <row r="193" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="29"/>
       <c r="B193" s="29"/>
       <c r="C193" s="29"/>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:11" ht="14.25" customHeight="1">
+    <row r="194" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="29"/>
       <c r="B194" s="29"/>
       <c r="C194" s="29"/>
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:11" ht="14.25" customHeight="1">
+    <row r="195" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="29"/>
       <c r="B195" s="29"/>
       <c r="C195" s="29"/>
@@ -4819,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" ht="14.25" customHeight="1">
+    <row r="196" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="29"/>
       <c r="B196" s="29"/>
       <c r="C196" s="29"/>
@@ -4838,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" ht="14.25" customHeight="1">
+    <row r="197" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="29"/>
       <c r="B197" s="29"/>
       <c r="C197" s="29"/>
@@ -4857,7 +4857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" ht="14.25" customHeight="1">
+    <row r="198" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="29"/>
       <c r="B198" s="29"/>
       <c r="C198" s="29"/>
@@ -4876,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:11" ht="14.25" customHeight="1">
+    <row r="199" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="29"/>
       <c r="B199" s="29"/>
       <c r="C199" s="29"/>
@@ -4895,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:11" ht="14.25" customHeight="1">
+    <row r="200" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="29"/>
       <c r="B200" s="29"/>
       <c r="C200" s="29"/>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:11" ht="14.25" customHeight="1">
+    <row r="201" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="29"/>
       <c r="B201" s="29"/>
       <c r="C201" s="29"/>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" ht="14.25" customHeight="1">
+    <row r="202" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="29"/>
       <c r="B202" s="29"/>
       <c r="C202" s="29"/>
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:11" ht="14.25" customHeight="1">
+    <row r="203" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="29"/>
       <c r="B203" s="29"/>
       <c r="C203" s="29"/>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:11" ht="14.25" customHeight="1">
+    <row r="204" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="29"/>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
@@ -4990,7 +4990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:11" ht="14.25" customHeight="1">
+    <row r="205" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="29"/>
       <c r="B205" s="29"/>
       <c r="C205" s="29"/>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:11" ht="14.25" customHeight="1">
+    <row r="206" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="29"/>
       <c r="B206" s="29"/>
       <c r="C206" s="29"/>
@@ -5028,7 +5028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:11" ht="14.25" customHeight="1">
+    <row r="207" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="29"/>
       <c r="B207" s="29"/>
       <c r="C207" s="29"/>
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:11" ht="14.25" customHeight="1">
+    <row r="208" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="29"/>
       <c r="B208" s="29"/>
       <c r="C208" s="29"/>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="14.25" customHeight="1">
+    <row r="209" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="29"/>
       <c r="B209" s="29"/>
       <c r="C209" s="29"/>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="14.25" customHeight="1">
+    <row r="210" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="29"/>
       <c r="B210" s="29"/>
       <c r="C210" s="29"/>
@@ -5104,7 +5104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:11" ht="14.25" customHeight="1">
+    <row r="211" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="29"/>
       <c r="B211" s="29"/>
       <c r="C211" s="29"/>
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:11" ht="14.25" customHeight="1">
+    <row r="212" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="29"/>
       <c r="B212" s="29"/>
       <c r="C212" s="29"/>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="14.25" customHeight="1">
+    <row r="213" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="29"/>
       <c r="B213" s="29"/>
       <c r="C213" s="29"/>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:11" ht="14.25" customHeight="1">
+    <row r="214" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="29"/>
       <c r="B214" s="29"/>
       <c r="C214" s="29"/>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:11" ht="14.25" customHeight="1">
+    <row r="215" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="29"/>
       <c r="B215" s="29"/>
       <c r="C215" s="29"/>
@@ -5199,7 +5199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:11" ht="14.25" customHeight="1">
+    <row r="216" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="29"/>
       <c r="B216" s="29"/>
       <c r="C216" s="29"/>
@@ -5218,7 +5218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:11" ht="14.25" customHeight="1">
+    <row r="217" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="29"/>
       <c r="B217" s="29"/>
       <c r="C217" s="29"/>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:11" ht="14.25" customHeight="1">
+    <row r="218" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="29"/>
       <c r="B218" s="29"/>
       <c r="C218" s="29"/>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:11" ht="14.25" customHeight="1">
+    <row r="219" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="29"/>
       <c r="B219" s="29"/>
       <c r="C219" s="29"/>
@@ -5275,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:11" ht="14.25" customHeight="1">
+    <row r="220" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="29"/>
       <c r="B220" s="29"/>
       <c r="C220" s="29"/>
@@ -5294,7 +5294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:11" ht="14.25" customHeight="1">
+    <row r="221" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="29"/>
       <c r="B221" s="29"/>
       <c r="C221" s="29"/>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:11" ht="14.25" customHeight="1">
+    <row r="222" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="29"/>
       <c r="B222" s="29"/>
       <c r="C222" s="29"/>
@@ -5332,7 +5332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:11" ht="14.25" customHeight="1">
+    <row r="223" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="29"/>
       <c r="B223" s="29"/>
       <c r="C223" s="29"/>
@@ -5351,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:11" ht="14.25" customHeight="1">
+    <row r="224" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="29"/>
       <c r="B224" s="29"/>
       <c r="C224" s="29"/>
@@ -5370,7 +5370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:11" ht="14.25" customHeight="1">
+    <row r="225" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="29"/>
       <c r="B225" s="29"/>
       <c r="C225" s="29"/>
@@ -5389,7 +5389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:11" ht="14.25" customHeight="1">
+    <row r="226" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="29"/>
       <c r="B226" s="29"/>
       <c r="C226" s="29"/>
@@ -5408,7 +5408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:11" ht="14.25" customHeight="1">
+    <row r="227" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="29"/>
       <c r="B227" s="29"/>
       <c r="C227" s="29"/>
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" ht="14.25" customHeight="1">
+    <row r="228" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="29"/>
       <c r="B228" s="29"/>
       <c r="C228" s="29"/>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:11" ht="14.25" customHeight="1">
+    <row r="229" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="29"/>
       <c r="B229" s="29"/>
       <c r="C229" s="29"/>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:11" ht="14.25" customHeight="1">
+    <row r="230" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="29"/>
       <c r="B230" s="29"/>
       <c r="C230" s="29"/>
@@ -5484,7 +5484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:11" ht="14.25" customHeight="1">
+    <row r="231" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="29"/>
       <c r="B231" s="29"/>
       <c r="C231" s="29"/>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:11" ht="14.25" customHeight="1">
+    <row r="232" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="29"/>
       <c r="B232" s="29"/>
       <c r="C232" s="29"/>
@@ -5522,7 +5522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:11" ht="14.25" customHeight="1">
+    <row r="233" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="29"/>
       <c r="B233" s="29"/>
       <c r="C233" s="29"/>
@@ -5541,7 +5541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:11" ht="14.25" customHeight="1">
+    <row r="234" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="29"/>
       <c r="B234" s="29"/>
       <c r="C234" s="29"/>
@@ -5560,7 +5560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:11" ht="14.25" customHeight="1">
+    <row r="235" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="29"/>
       <c r="B235" s="29"/>
       <c r="C235" s="29"/>
@@ -5579,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:11" ht="14.25" customHeight="1">
+    <row r="236" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="29"/>
       <c r="B236" s="29"/>
       <c r="C236" s="29"/>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:11" ht="14.25" customHeight="1">
+    <row r="237" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="29"/>
       <c r="B237" s="29"/>
       <c r="C237" s="29"/>
@@ -5617,7 +5617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:11" ht="14.25" customHeight="1">
+    <row r="238" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="29"/>
       <c r="B238" s="29"/>
       <c r="C238" s="29"/>
@@ -5636,7 +5636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:11" ht="14.25" customHeight="1">
+    <row r="239" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="29"/>
       <c r="B239" s="29"/>
       <c r="C239" s="29"/>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" ht="14.25" customHeight="1">
+    <row r="240" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="29"/>
       <c r="B240" s="29"/>
       <c r="C240" s="29"/>
@@ -5674,7 +5674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:11" ht="14.25" customHeight="1">
+    <row r="241" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="29"/>
       <c r="B241" s="29"/>
       <c r="C241" s="29"/>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:11" ht="14.25" customHeight="1">
+    <row r="242" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="29"/>
       <c r="B242" s="29"/>
       <c r="C242" s="29"/>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:11" ht="14.25" customHeight="1">
+    <row r="243" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="29"/>
       <c r="B243" s="29"/>
       <c r="C243" s="29"/>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:11" ht="14.25" customHeight="1">
+    <row r="244" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="29"/>
       <c r="B244" s="29"/>
       <c r="C244" s="29"/>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:11" ht="14.25" customHeight="1">
+    <row r="245" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="29"/>
       <c r="B245" s="29"/>
       <c r="C245" s="29"/>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:11" ht="14.25" customHeight="1">
+    <row r="246" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="29"/>
       <c r="B246" s="29"/>
       <c r="C246" s="29"/>
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:11" ht="14.25" customHeight="1">
+    <row r="247" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="29"/>
       <c r="B247" s="29"/>
       <c r="C247" s="29"/>
@@ -5807,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" ht="14.25" customHeight="1">
+    <row r="248" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="29"/>
       <c r="B248" s="29"/>
       <c r="C248" s="29"/>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:11" ht="14.25" customHeight="1">
+    <row r="249" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="29"/>
       <c r="B249" s="29"/>
       <c r="C249" s="29"/>
@@ -5845,7 +5845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:11" ht="14.25" customHeight="1">
+    <row r="250" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="29"/>
       <c r="B250" s="29"/>
       <c r="C250" s="29"/>
@@ -5864,7 +5864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:11" ht="14.25" customHeight="1">
+    <row r="251" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="29"/>
       <c r="B251" s="29"/>
       <c r="C251" s="29"/>
@@ -5883,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:11" ht="14.25" customHeight="1">
+    <row r="252" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="29"/>
       <c r="B252" s="29"/>
       <c r="C252" s="29"/>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:11" ht="14.25" customHeight="1">
+    <row r="253" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="29"/>
       <c r="B253" s="29"/>
       <c r="C253" s="29"/>
@@ -5921,7 +5921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:11" ht="14.25" customHeight="1">
+    <row r="254" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="29"/>
       <c r="B254" s="29"/>
       <c r="C254" s="29"/>
@@ -5940,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:11" ht="14.25" customHeight="1">
+    <row r="255" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="29"/>
       <c r="B255" s="29"/>
       <c r="C255" s="29"/>
@@ -5959,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:11" ht="14.25" customHeight="1">
+    <row r="256" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="29"/>
       <c r="B256" s="29"/>
       <c r="C256" s="29"/>
@@ -5978,7 +5978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:11" ht="14.25" customHeight="1">
+    <row r="257" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="29"/>
       <c r="B257" s="29"/>
       <c r="C257" s="29"/>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:11" ht="14.25" customHeight="1">
+    <row r="258" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="29"/>
       <c r="B258" s="29"/>
       <c r="C258" s="29"/>
@@ -6016,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" ht="14.25" customHeight="1">
+    <row r="259" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="29"/>
       <c r="B259" s="29"/>
       <c r="C259" s="29"/>
@@ -6035,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:11" ht="14.25" customHeight="1">
+    <row r="260" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="29"/>
       <c r="B260" s="29"/>
       <c r="C260" s="29"/>
@@ -6054,7 +6054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:11" ht="14.25" customHeight="1">
+    <row r="261" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="29"/>
       <c r="B261" s="29"/>
       <c r="C261" s="29"/>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:11" ht="14.25" customHeight="1">
+    <row r="262" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="29"/>
       <c r="B262" s="29"/>
       <c r="C262" s="29"/>
@@ -6092,7 +6092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:11" ht="14.25" customHeight="1">
+    <row r="263" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="29"/>
       <c r="B263" s="29"/>
       <c r="C263" s="29"/>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:11" ht="14.25" customHeight="1">
+    <row r="264" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="29"/>
       <c r="B264" s="29"/>
       <c r="C264" s="29"/>
@@ -6130,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:11" ht="14.25" customHeight="1">
+    <row r="265" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="29"/>
       <c r="B265" s="29"/>
       <c r="C265" s="29"/>
@@ -6149,7 +6149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:11" ht="14.25" customHeight="1">
+    <row r="266" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="29"/>
       <c r="B266" s="29"/>
       <c r="C266" s="29"/>
@@ -6168,7 +6168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" ht="14.25" customHeight="1">
+    <row r="267" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="29"/>
       <c r="B267" s="29"/>
       <c r="C267" s="29"/>
@@ -6187,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11" ht="14.25" customHeight="1">
+    <row r="268" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="29"/>
       <c r="B268" s="29"/>
       <c r="C268" s="29"/>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:11" ht="14.25" customHeight="1">
+    <row r="269" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="29"/>
       <c r="B269" s="29"/>
       <c r="C269" s="29"/>
@@ -6225,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" ht="14.25" customHeight="1">
+    <row r="270" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="29"/>
       <c r="B270" s="29"/>
       <c r="C270" s="29"/>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:11" ht="14.25" customHeight="1">
+    <row r="271" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="29"/>
       <c r="B271" s="29"/>
       <c r="C271" s="29"/>
@@ -6263,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:11" ht="14.25" customHeight="1">
+    <row r="272" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="29"/>
       <c r="B272" s="29"/>
       <c r="C272" s="29"/>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:11" ht="14.25" customHeight="1">
+    <row r="273" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="29"/>
       <c r="B273" s="29"/>
       <c r="C273" s="29"/>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:11" ht="14.25" customHeight="1">
+    <row r="274" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="29"/>
       <c r="B274" s="29"/>
       <c r="C274" s="29"/>
@@ -6320,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:11" ht="14.25" customHeight="1">
+    <row r="275" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="29"/>
       <c r="B275" s="29"/>
       <c r="C275" s="29"/>
@@ -6339,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:11" ht="14.25" customHeight="1">
+    <row r="276" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="29"/>
       <c r="B276" s="29"/>
       <c r="C276" s="29"/>
@@ -6358,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:11" ht="14.25" customHeight="1">
+    <row r="277" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="29"/>
       <c r="B277" s="29"/>
       <c r="C277" s="29"/>
@@ -6377,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:11" ht="14.25" customHeight="1">
+    <row r="278" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="29"/>
       <c r="B278" s="29"/>
       <c r="C278" s="29"/>
@@ -6396,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="14.25" customHeight="1">
+    <row r="279" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="29"/>
       <c r="B279" s="29"/>
       <c r="C279" s="29"/>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="14.25" customHeight="1">
+    <row r="280" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="29"/>
       <c r="B280" s="29"/>
       <c r="C280" s="29"/>
@@ -6434,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:11" ht="14.25" customHeight="1">
+    <row r="281" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="29"/>
       <c r="B281" s="29"/>
       <c r="C281" s="29"/>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:11" ht="14.25" customHeight="1">
+    <row r="282" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="29"/>
       <c r="B282" s="29"/>
       <c r="C282" s="29"/>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:11" ht="14.25" customHeight="1">
+    <row r="283" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="29"/>
       <c r="B283" s="29"/>
       <c r="C283" s="29"/>
@@ -6491,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:11" ht="14.25" customHeight="1">
+    <row r="284" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="29"/>
       <c r="B284" s="29"/>
       <c r="C284" s="29"/>
@@ -6510,7 +6510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" ht="14.25" customHeight="1">
+    <row r="285" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="29"/>
       <c r="B285" s="29"/>
       <c r="C285" s="29"/>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:11" ht="14.25" customHeight="1">
+    <row r="286" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="29"/>
       <c r="B286" s="29"/>
       <c r="C286" s="29"/>
@@ -6548,7 +6548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" ht="14.25" customHeight="1">
+    <row r="287" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="29"/>
       <c r="B287" s="29"/>
       <c r="C287" s="29"/>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:11" ht="14.25" customHeight="1">
+    <row r="288" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="29"/>
       <c r="B288" s="29"/>
       <c r="C288" s="29"/>
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:11" ht="14.25" customHeight="1">
+    <row r="289" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="29"/>
       <c r="B289" s="29"/>
       <c r="C289" s="29"/>
@@ -6605,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:11" ht="14.25" customHeight="1">
+    <row r="290" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="29"/>
       <c r="B290" s="29"/>
       <c r="C290" s="29"/>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:11" ht="14.25" customHeight="1">
+    <row r="291" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="29"/>
       <c r="B291" s="29"/>
       <c r="C291" s="29"/>
@@ -6643,7 +6643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:11" ht="14.25" customHeight="1">
+    <row r="292" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="29"/>
       <c r="B292" s="29"/>
       <c r="C292" s="29"/>
@@ -6662,7 +6662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:11" ht="14.25" customHeight="1">
+    <row r="293" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="29"/>
       <c r="B293" s="29"/>
       <c r="C293" s="29"/>
@@ -6681,7 +6681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:11" ht="14.25" customHeight="1">
+    <row r="294" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="29"/>
       <c r="B294" s="29"/>
       <c r="C294" s="29"/>
@@ -6700,7 +6700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:11" ht="14.25" customHeight="1">
+    <row r="295" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="29"/>
       <c r="B295" s="29"/>
       <c r="C295" s="29"/>
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:11" ht="14.25" customHeight="1">
+    <row r="296" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="29"/>
       <c r="B296" s="29"/>
       <c r="C296" s="29"/>
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:11" ht="14.25" customHeight="1">
+    <row r="297" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="29"/>
       <c r="B297" s="29"/>
       <c r="C297" s="29"/>
@@ -6757,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:11" ht="14.25" customHeight="1">
+    <row r="298" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="29"/>
       <c r="B298" s="29"/>
       <c r="C298" s="29"/>
@@ -6776,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:11" ht="14.25" customHeight="1">
+    <row r="299" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="29"/>
       <c r="B299" s="29"/>
       <c r="C299" s="29"/>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:11" ht="14.25" customHeight="1">
+    <row r="300" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="29"/>
       <c r="B300" s="29"/>
       <c r="C300" s="29"/>
@@ -6814,7 +6814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:11" ht="14.25" customHeight="1">
+    <row r="301" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="29"/>
       <c r="B301" s="29"/>
       <c r="C301" s="29"/>
@@ -6833,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11" ht="14.25" customHeight="1">
+    <row r="302" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="29"/>
       <c r="B302" s="29"/>
       <c r="C302" s="29"/>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:11" ht="14.25" customHeight="1">
+    <row r="303" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="29"/>
       <c r="B303" s="29"/>
       <c r="C303" s="29"/>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:11" ht="14.25" customHeight="1">
+    <row r="304" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="29"/>
       <c r="B304" s="29"/>
       <c r="C304" s="29"/>
@@ -6890,7 +6890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:11" ht="14.25" customHeight="1">
+    <row r="305" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="29"/>
       <c r="B305" s="29"/>
       <c r="C305" s="29"/>
@@ -6909,7 +6909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:11" ht="14.25" customHeight="1">
+    <row r="306" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="29"/>
       <c r="B306" s="29"/>
       <c r="C306" s="29"/>
@@ -6928,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:11" ht="14.25" customHeight="1">
+    <row r="307" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="29"/>
       <c r="B307" s="29"/>
       <c r="C307" s="29"/>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:11" ht="14.25" customHeight="1">
+    <row r="308" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="29"/>
       <c r="B308" s="29"/>
       <c r="C308" s="29"/>
@@ -6966,7 +6966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:11" ht="14.25" customHeight="1">
+    <row r="309" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="29"/>
       <c r="B309" s="29"/>
       <c r="C309" s="29"/>
@@ -6985,7 +6985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:11" ht="14.25" customHeight="1">
+    <row r="310" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="29"/>
       <c r="B310" s="29"/>
       <c r="C310" s="29"/>
@@ -7004,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:11" ht="14.25" customHeight="1">
+    <row r="311" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="29"/>
       <c r="B311" s="29"/>
       <c r="C311" s="29"/>
@@ -7023,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:11" ht="14.25" customHeight="1">
+    <row r="312" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="29"/>
       <c r="B312" s="29"/>
       <c r="C312" s="29"/>
@@ -7042,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:11" ht="14.25" customHeight="1">
+    <row r="313" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="29"/>
       <c r="B313" s="29"/>
       <c r="C313" s="29"/>
@@ -7061,7 +7061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:11" ht="14.25" customHeight="1">
+    <row r="314" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="29"/>
       <c r="B314" s="29"/>
       <c r="C314" s="29"/>
@@ -7080,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:11" ht="14.25" customHeight="1">
+    <row r="315" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="29"/>
       <c r="B315" s="29"/>
       <c r="C315" s="29"/>
@@ -7099,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:11" ht="14.25" customHeight="1">
+    <row r="316" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="29"/>
       <c r="B316" s="29"/>
       <c r="C316" s="29"/>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:11" ht="14.25" customHeight="1">
+    <row r="317" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="29"/>
       <c r="B317" s="29"/>
       <c r="C317" s="29"/>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:11" ht="14.25" customHeight="1">
+    <row r="318" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="29"/>
       <c r="B318" s="29"/>
       <c r="C318" s="29"/>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:11" ht="14.25" customHeight="1">
+    <row r="319" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="29"/>
       <c r="B319" s="29"/>
       <c r="C319" s="29"/>
@@ -7175,7 +7175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:11" ht="14.25" customHeight="1">
+    <row r="320" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="29"/>
       <c r="B320" s="29"/>
       <c r="C320" s="29"/>
@@ -7194,7 +7194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:11" ht="14.25" customHeight="1">
+    <row r="321" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="29"/>
       <c r="B321" s="29"/>
       <c r="C321" s="29"/>
@@ -7213,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:11" ht="14.25" customHeight="1">
+    <row r="322" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="29"/>
       <c r="B322" s="29"/>
       <c r="C322" s="29"/>
@@ -7232,7 +7232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:11" ht="14.25" customHeight="1">
+    <row r="323" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="29"/>
       <c r="B323" s="29"/>
       <c r="C323" s="29"/>
@@ -7251,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:11" ht="14.25" customHeight="1">
+    <row r="324" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="29"/>
       <c r="B324" s="29"/>
       <c r="C324" s="29"/>
@@ -7270,7 +7270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:11" ht="14.25" customHeight="1">
+    <row r="325" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="29"/>
       <c r="B325" s="29"/>
       <c r="C325" s="29"/>
@@ -7289,7 +7289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:11" ht="14.25" customHeight="1">
+    <row r="326" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="29"/>
       <c r="B326" s="29"/>
       <c r="C326" s="29"/>
@@ -7308,7 +7308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:11" ht="14.25" customHeight="1">
+    <row r="327" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="29"/>
       <c r="B327" s="29"/>
       <c r="C327" s="29"/>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:11" ht="14.25" customHeight="1">
+    <row r="328" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="29"/>
       <c r="B328" s="29"/>
       <c r="C328" s="29"/>
@@ -7346,7 +7346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:11" ht="14.25" customHeight="1">
+    <row r="329" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="29"/>
       <c r="B329" s="29"/>
       <c r="C329" s="29"/>
@@ -7365,7 +7365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:11" ht="14.25" customHeight="1">
+    <row r="330" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="29"/>
       <c r="B330" s="29"/>
       <c r="C330" s="29"/>
@@ -7384,7 +7384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:11" ht="14.25" customHeight="1">
+    <row r="331" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="29"/>
       <c r="B331" s="29"/>
       <c r="C331" s="29"/>
@@ -7403,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:11" ht="14.25" customHeight="1">
+    <row r="332" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="29"/>
       <c r="B332" s="29"/>
       <c r="C332" s="29"/>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:11" ht="14.25" customHeight="1">
+    <row r="333" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="29"/>
       <c r="B333" s="29"/>
       <c r="C333" s="29"/>
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:11" ht="14.25" customHeight="1">
+    <row r="334" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="29"/>
       <c r="B334" s="29"/>
       <c r="C334" s="29"/>
@@ -7460,7 +7460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:11" ht="14.25" customHeight="1">
+    <row r="335" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="29"/>
       <c r="B335" s="29"/>
       <c r="C335" s="29"/>
@@ -7479,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:11" ht="14.25" customHeight="1">
+    <row r="336" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="29"/>
       <c r="B336" s="29"/>
       <c r="C336" s="29"/>
@@ -7498,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:11" ht="14.25" customHeight="1">
+    <row r="337" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="29"/>
       <c r="B337" s="29"/>
       <c r="C337" s="29"/>
@@ -7517,7 +7517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:11" ht="14.25" customHeight="1">
+    <row r="338" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="29"/>
       <c r="B338" s="29"/>
       <c r="C338" s="29"/>
@@ -7536,7 +7536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:11" ht="14.25" customHeight="1">
+    <row r="339" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="29"/>
       <c r="B339" s="29"/>
       <c r="C339" s="29"/>
@@ -7555,7 +7555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" ht="14.25" customHeight="1">
+    <row r="340" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="29"/>
       <c r="B340" s="29"/>
       <c r="C340" s="29"/>
@@ -7574,7 +7574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:11" ht="14.25" customHeight="1">
+    <row r="341" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="29"/>
       <c r="B341" s="29"/>
       <c r="C341" s="29"/>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:11" ht="14.25" customHeight="1">
+    <row r="342" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="29"/>
       <c r="B342" s="29"/>
       <c r="C342" s="29"/>
@@ -7612,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:11" ht="14.25" customHeight="1">
+    <row r="343" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="29"/>
       <c r="B343" s="29"/>
       <c r="C343" s="29"/>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:11" ht="14.25" customHeight="1">
+    <row r="344" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="29"/>
       <c r="B344" s="29"/>
       <c r="C344" s="29"/>
@@ -7650,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:11" ht="14.25" customHeight="1">
+    <row r="345" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="29"/>
       <c r="B345" s="29"/>
       <c r="C345" s="29"/>
@@ -7669,7 +7669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:11" ht="14.25" customHeight="1">
+    <row r="346" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="29"/>
       <c r="B346" s="29"/>
       <c r="C346" s="29"/>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:11" ht="14.25" customHeight="1">
+    <row r="347" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="29"/>
       <c r="B347" s="29"/>
       <c r="C347" s="29"/>
@@ -7707,7 +7707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:11" ht="14.25" customHeight="1">
+    <row r="348" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="29"/>
       <c r="B348" s="29"/>
       <c r="C348" s="29"/>
@@ -7726,7 +7726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:11" ht="14.25" customHeight="1">
+    <row r="349" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="29"/>
       <c r="B349" s="29"/>
       <c r="C349" s="29"/>
@@ -7745,7 +7745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:11" ht="14.25" customHeight="1">
+    <row r="350" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="29"/>
       <c r="B350" s="29"/>
       <c r="C350" s="29"/>
@@ -7764,7 +7764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:11" ht="14.25" customHeight="1">
+    <row r="351" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="29"/>
       <c r="B351" s="29"/>
       <c r="C351" s="29"/>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:11" ht="14.25" customHeight="1">
+    <row r="352" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="29"/>
       <c r="B352" s="29"/>
       <c r="C352" s="29"/>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:11" ht="14.25" customHeight="1">
+    <row r="353" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="29"/>
       <c r="B353" s="29"/>
       <c r="C353" s="29"/>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" ht="14.25" customHeight="1">
+    <row r="354" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="29"/>
       <c r="B354" s="29"/>
       <c r="C354" s="29"/>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" ht="14.25" customHeight="1">
+    <row r="355" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="29"/>
       <c r="B355" s="29"/>
       <c r="C355" s="29"/>
@@ -7859,7 +7859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:11" ht="14.25" customHeight="1">
+    <row r="356" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="29"/>
       <c r="B356" s="29"/>
       <c r="C356" s="29"/>
@@ -7878,7 +7878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:11" ht="14.25" customHeight="1">
+    <row r="357" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="29"/>
       <c r="B357" s="29"/>
       <c r="C357" s="29"/>
@@ -7897,7 +7897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:11" ht="14.25" customHeight="1">
+    <row r="358" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="29"/>
       <c r="B358" s="29"/>
       <c r="C358" s="29"/>
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:11" ht="14.25" customHeight="1">
+    <row r="359" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="29"/>
       <c r="B359" s="29"/>
       <c r="C359" s="29"/>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:11" ht="14.25" customHeight="1">
+    <row r="360" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="29"/>
       <c r="B360" s="29"/>
       <c r="C360" s="29"/>
@@ -7954,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" ht="14.25" customHeight="1">
+    <row r="361" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="29"/>
       <c r="B361" s="29"/>
       <c r="C361" s="29"/>
@@ -7973,7 +7973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:11" ht="14.25" customHeight="1">
+    <row r="362" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="29"/>
       <c r="B362" s="29"/>
       <c r="C362" s="29"/>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:11" ht="14.25" customHeight="1">
+    <row r="363" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="29"/>
       <c r="B363" s="29"/>
       <c r="C363" s="29"/>
@@ -8011,7 +8011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:11" ht="14.25" customHeight="1">
+    <row r="364" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="29"/>
       <c r="B364" s="29"/>
       <c r="C364" s="29"/>
@@ -8030,7 +8030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:11" ht="14.25" customHeight="1">
+    <row r="365" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="29"/>
       <c r="B365" s="29"/>
       <c r="C365" s="29"/>
@@ -8049,7 +8049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:11" ht="14.25" customHeight="1">
+    <row r="366" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="29"/>
       <c r="B366" s="29"/>
       <c r="C366" s="29"/>
@@ -8068,7 +8068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:11" ht="14.25" customHeight="1">
+    <row r="367" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="29"/>
       <c r="B367" s="29"/>
       <c r="C367" s="29"/>
@@ -8087,7 +8087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:11" ht="14.25" customHeight="1">
+    <row r="368" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="29"/>
       <c r="B368" s="29"/>
       <c r="C368" s="29"/>
@@ -8106,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:11" ht="14.25" customHeight="1">
+    <row r="369" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="29"/>
       <c r="B369" s="29"/>
       <c r="C369" s="29"/>
@@ -8125,7 +8125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:11" ht="14.25" customHeight="1">
+    <row r="370" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="29"/>
       <c r="B370" s="29"/>
       <c r="C370" s="29"/>
@@ -8144,7 +8144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:11" ht="14.25" customHeight="1">
+    <row r="371" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="29"/>
       <c r="B371" s="29"/>
       <c r="C371" s="29"/>
@@ -8163,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:11" ht="14.25" customHeight="1">
+    <row r="372" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="29"/>
       <c r="B372" s="29"/>
       <c r="C372" s="29"/>
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:11" ht="14.25" customHeight="1">
+    <row r="373" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="29"/>
       <c r="B373" s="29"/>
       <c r="C373" s="29"/>
@@ -8201,7 +8201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:11" ht="14.25" customHeight="1">
+    <row r="374" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="29"/>
       <c r="B374" s="29"/>
       <c r="C374" s="29"/>
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:11" ht="14.25" customHeight="1">
+    <row r="375" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="29"/>
       <c r="B375" s="29"/>
       <c r="C375" s="29"/>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:11" ht="14.25" customHeight="1">
+    <row r="376" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="29"/>
       <c r="B376" s="29"/>
       <c r="C376" s="29"/>
@@ -8258,7 +8258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:11" ht="14.25" customHeight="1">
+    <row r="377" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="29"/>
       <c r="B377" s="29"/>
       <c r="C377" s="29"/>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:11" ht="14.25" customHeight="1">
+    <row r="378" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="29"/>
       <c r="B378" s="29"/>
       <c r="C378" s="29"/>
@@ -8296,7 +8296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:11" ht="14.25" customHeight="1">
+    <row r="379" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="29"/>
       <c r="B379" s="29"/>
       <c r="C379" s="29"/>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:11" ht="14.25" customHeight="1">
+    <row r="380" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="29"/>
       <c r="B380" s="29"/>
       <c r="C380" s="29"/>
@@ -8334,7 +8334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:11" ht="14.25" customHeight="1">
+    <row r="381" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="29"/>
       <c r="B381" s="29"/>
       <c r="C381" s="29"/>
@@ -8353,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:11" ht="14.25" customHeight="1">
+    <row r="382" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="29"/>
       <c r="B382" s="29"/>
       <c r="C382" s="29"/>
@@ -8372,7 +8372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:11" ht="14.25" customHeight="1">
+    <row r="383" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="29"/>
       <c r="B383" s="29"/>
       <c r="C383" s="29"/>
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:11" ht="14.25" customHeight="1">
+    <row r="384" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="29"/>
       <c r="B384" s="29"/>
       <c r="C384" s="29"/>
@@ -8410,7 +8410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:11" ht="14.25" customHeight="1">
+    <row r="385" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="29"/>
       <c r="B385" s="29"/>
       <c r="C385" s="29"/>
@@ -8429,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:11" ht="14.25" customHeight="1">
+    <row r="386" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="29"/>
       <c r="B386" s="29"/>
       <c r="C386" s="29"/>
@@ -8448,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:11" ht="14.25" customHeight="1">
+    <row r="387" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="29"/>
       <c r="B387" s="29"/>
       <c r="C387" s="29"/>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:11" ht="14.25" customHeight="1">
+    <row r="388" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="29"/>
       <c r="B388" s="29"/>
       <c r="C388" s="29"/>
@@ -8486,7 +8486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:11" ht="14.25" customHeight="1">
+    <row r="389" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="29"/>
       <c r="B389" s="29"/>
       <c r="C389" s="29"/>
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:11" ht="14.25" customHeight="1">
+    <row r="390" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="29"/>
       <c r="B390" s="29"/>
       <c r="C390" s="29"/>
@@ -8524,7 +8524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:11" ht="14.25" customHeight="1">
+    <row r="391" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="29"/>
       <c r="B391" s="29"/>
       <c r="C391" s="29"/>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:11" ht="14.25" customHeight="1">
+    <row r="392" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="29"/>
       <c r="B392" s="29"/>
       <c r="C392" s="29"/>
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:11" ht="14.25" customHeight="1">
+    <row r="393" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="29"/>
       <c r="B393" s="29"/>
       <c r="C393" s="29"/>
@@ -8581,7 +8581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:11" ht="14.25" customHeight="1">
+    <row r="394" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="29"/>
       <c r="B394" s="29"/>
       <c r="C394" s="29"/>
@@ -8600,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:11" ht="14.25" customHeight="1">
+    <row r="395" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="29"/>
       <c r="B395" s="29"/>
       <c r="C395" s="29"/>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:11" ht="14.25" customHeight="1">
+    <row r="396" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="29"/>
       <c r="B396" s="29"/>
       <c r="C396" s="29"/>
@@ -8638,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:11" ht="14.25" customHeight="1">
+    <row r="397" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="29"/>
       <c r="B397" s="29"/>
       <c r="C397" s="29"/>
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:11" ht="14.25" customHeight="1">
+    <row r="398" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="29"/>
       <c r="B398" s="29"/>
       <c r="C398" s="29"/>
@@ -8676,7 +8676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:11" ht="14.25" customHeight="1">
+    <row r="399" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="29"/>
       <c r="B399" s="29"/>
       <c r="C399" s="29"/>
@@ -8695,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" ht="14.25" customHeight="1">
+    <row r="400" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="29"/>
       <c r="B400" s="29"/>
       <c r="C400" s="29"/>
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:11" ht="14.25" customHeight="1">
+    <row r="401" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="29"/>
       <c r="B401" s="29"/>
       <c r="C401" s="29"/>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:11" ht="14.25" customHeight="1">
+    <row r="402" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="29"/>
       <c r="B402" s="29"/>
       <c r="C402" s="29"/>
@@ -8752,7 +8752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:11" ht="14.25" customHeight="1">
+    <row r="403" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="29"/>
       <c r="B403" s="29"/>
       <c r="C403" s="29"/>
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:11" ht="14.25" customHeight="1">
+    <row r="404" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="29"/>
       <c r="B404" s="29"/>
       <c r="C404" s="29"/>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:11" ht="14.25" customHeight="1">
+    <row r="405" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="29"/>
       <c r="B405" s="29"/>
       <c r="C405" s="29"/>
@@ -8809,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:11" ht="14.25" customHeight="1">
+    <row r="406" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="29"/>
       <c r="B406" s="29"/>
       <c r="C406" s="29"/>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:11" ht="14.25" customHeight="1">
+    <row r="407" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="29"/>
       <c r="B407" s="29"/>
       <c r="C407" s="29"/>
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:11" ht="14.25" customHeight="1">
+    <row r="408" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="29"/>
       <c r="B408" s="29"/>
       <c r="C408" s="29"/>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:11" ht="14.25" customHeight="1">
+    <row r="409" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="29"/>
       <c r="B409" s="29"/>
       <c r="C409" s="29"/>
@@ -8885,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:11" ht="14.25" customHeight="1">
+    <row r="410" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="29"/>
       <c r="B410" s="29"/>
       <c r="C410" s="29"/>
@@ -8904,7 +8904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:11" ht="14.25" customHeight="1">
+    <row r="411" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="29"/>
       <c r="B411" s="29"/>
       <c r="C411" s="29"/>
@@ -8923,7 +8923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:11" ht="14.25" customHeight="1">
+    <row r="412" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="29"/>
       <c r="B412" s="29"/>
       <c r="C412" s="29"/>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:11" ht="14.25" customHeight="1">
+    <row r="413" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="29"/>
       <c r="B413" s="29"/>
       <c r="C413" s="29"/>
@@ -8961,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:11" ht="14.25" customHeight="1">
+    <row r="414" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="29"/>
       <c r="B414" s="29"/>
       <c r="C414" s="29"/>
@@ -8980,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:11" ht="14.25" customHeight="1">
+    <row r="415" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="29"/>
       <c r="B415" s="29"/>
       <c r="C415" s="29"/>
@@ -8999,7 +8999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:11" ht="14.25" customHeight="1">
+    <row r="416" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="29"/>
       <c r="B416" s="29"/>
       <c r="C416" s="29"/>
@@ -9018,7 +9018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:11" ht="14.25" customHeight="1">
+    <row r="417" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="29"/>
       <c r="B417" s="29"/>
       <c r="C417" s="29"/>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:11" ht="14.25" customHeight="1">
+    <row r="418" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="29"/>
       <c r="B418" s="29"/>
       <c r="C418" s="29"/>
@@ -9056,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:11" ht="14.25" customHeight="1">
+    <row r="419" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="29"/>
       <c r="B419" s="29"/>
       <c r="C419" s="29"/>
@@ -9075,7 +9075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:11" ht="14.25" customHeight="1">
+    <row r="420" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="29"/>
       <c r="B420" s="29"/>
       <c r="C420" s="29"/>
@@ -9094,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:11" ht="14.25" customHeight="1">
+    <row r="421" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="29"/>
       <c r="B421" s="29"/>
       <c r="C421" s="29"/>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:11" ht="14.25" customHeight="1">
+    <row r="422" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="29"/>
       <c r="B422" s="29"/>
       <c r="C422" s="29"/>
@@ -9132,7 +9132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:11" ht="14.25" customHeight="1">
+    <row r="423" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="29"/>
       <c r="B423" s="29"/>
       <c r="C423" s="29"/>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:11" ht="14.25" customHeight="1">
+    <row r="424" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="29"/>
       <c r="B424" s="29"/>
       <c r="C424" s="29"/>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:11" ht="14.25" customHeight="1">
+    <row r="425" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="29"/>
       <c r="B425" s="29"/>
       <c r="C425" s="29"/>
@@ -9189,7 +9189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:11" ht="14.25" customHeight="1">
+    <row r="426" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="29"/>
       <c r="B426" s="29"/>
       <c r="C426" s="29"/>
@@ -9208,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:11" ht="14.25" customHeight="1">
+    <row r="427" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="29"/>
       <c r="B427" s="29"/>
       <c r="C427" s="29"/>
@@ -9227,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:11" ht="14.25" customHeight="1">
+    <row r="428" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="29"/>
       <c r="B428" s="29"/>
       <c r="C428" s="29"/>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:11" ht="14.25" customHeight="1">
+    <row r="429" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="29"/>
       <c r="B429" s="29"/>
       <c r="C429" s="29"/>
@@ -9265,7 +9265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:11" ht="14.25" customHeight="1">
+    <row r="430" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="29"/>
       <c r="B430" s="29"/>
       <c r="C430" s="29"/>
@@ -9284,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:11" ht="14.25" customHeight="1">
+    <row r="431" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="29"/>
       <c r="B431" s="29"/>
       <c r="C431" s="29"/>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:11" ht="14.25" customHeight="1">
+    <row r="432" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="29"/>
       <c r="B432" s="29"/>
       <c r="C432" s="29"/>
@@ -9322,7 +9322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:11" ht="14.25" customHeight="1">
+    <row r="433" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="29"/>
       <c r="B433" s="29"/>
       <c r="C433" s="29"/>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:11" ht="14.25" customHeight="1">
+    <row r="434" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="29"/>
       <c r="B434" s="29"/>
       <c r="C434" s="29"/>
@@ -9360,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:11" ht="14.25" customHeight="1">
+    <row r="435" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="29"/>
       <c r="B435" s="29"/>
       <c r="C435" s="29"/>
@@ -9379,7 +9379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:11" ht="14.25" customHeight="1">
+    <row r="436" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="29"/>
       <c r="B436" s="29"/>
       <c r="C436" s="29"/>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:11" ht="14.25" customHeight="1">
+    <row r="437" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="29"/>
       <c r="B437" s="29"/>
       <c r="C437" s="29"/>
@@ -9417,7 +9417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:11" ht="14.25" customHeight="1">
+    <row r="438" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="29"/>
       <c r="B438" s="29"/>
       <c r="C438" s="29"/>
@@ -9436,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:11" ht="14.25" customHeight="1">
+    <row r="439" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="29"/>
       <c r="B439" s="29"/>
       <c r="C439" s="29"/>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:11" ht="14.25" customHeight="1">
+    <row r="440" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="29"/>
       <c r="B440" s="29"/>
       <c r="C440" s="29"/>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:11" ht="14.25" customHeight="1">
+    <row r="441" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="29"/>
       <c r="B441" s="29"/>
       <c r="C441" s="29"/>
@@ -9493,7 +9493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:11" ht="14.25" customHeight="1">
+    <row r="442" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="29"/>
       <c r="B442" s="29"/>
       <c r="C442" s="29"/>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:11" ht="14.25" customHeight="1">
+    <row r="443" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="29"/>
       <c r="B443" s="29"/>
       <c r="C443" s="29"/>
@@ -9531,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:11" ht="14.25" customHeight="1">
+    <row r="444" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="29"/>
       <c r="B444" s="29"/>
       <c r="C444" s="29"/>
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:11" ht="14.25" customHeight="1">
+    <row r="445" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="29"/>
       <c r="B445" s="29"/>
       <c r="C445" s="29"/>
@@ -9569,7 +9569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:11" ht="14.25" customHeight="1">
+    <row r="446" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="29"/>
       <c r="B446" s="29"/>
       <c r="C446" s="29"/>
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:11" ht="14.25" customHeight="1">
+    <row r="447" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="29"/>
       <c r="B447" s="29"/>
       <c r="C447" s="29"/>
@@ -9607,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:11" ht="14.25" customHeight="1">
+    <row r="448" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="29"/>
       <c r="B448" s="29"/>
       <c r="C448" s="29"/>
@@ -9626,7 +9626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:11" ht="14.25" customHeight="1">
+    <row r="449" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="29"/>
       <c r="B449" s="29"/>
       <c r="C449" s="29"/>
@@ -9645,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:11" ht="14.25" customHeight="1">
+    <row r="450" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="29"/>
       <c r="B450" s="29"/>
       <c r="C450" s="29"/>
@@ -9664,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:11" ht="14.25" customHeight="1">
+    <row r="451" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="29"/>
       <c r="B451" s="29"/>
       <c r="C451" s="29"/>
@@ -9683,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:11" ht="14.25" customHeight="1">
+    <row r="452" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="29"/>
       <c r="B452" s="29"/>
       <c r="C452" s="29"/>
@@ -9702,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:11" ht="14.25" customHeight="1">
+    <row r="453" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="29"/>
       <c r="B453" s="29"/>
       <c r="C453" s="29"/>
@@ -9721,7 +9721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:11" ht="14.25" customHeight="1">
+    <row r="454" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="29"/>
       <c r="B454" s="29"/>
       <c r="C454" s="29"/>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:11" ht="14.25" customHeight="1">
+    <row r="455" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="29"/>
       <c r="B455" s="29"/>
       <c r="C455" s="29"/>
@@ -9759,7 +9759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:11" ht="14.25" customHeight="1">
+    <row r="456" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="29"/>
       <c r="B456" s="29"/>
       <c r="C456" s="29"/>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:11" ht="14.25" customHeight="1">
+    <row r="457" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="29"/>
       <c r="B457" s="29"/>
       <c r="C457" s="29"/>
@@ -9797,7 +9797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:11" ht="14.25" customHeight="1">
+    <row r="458" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="29"/>
       <c r="B458" s="29"/>
       <c r="C458" s="29"/>
@@ -9816,7 +9816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:11" ht="14.25" customHeight="1">
+    <row r="459" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="29"/>
       <c r="B459" s="29"/>
       <c r="C459" s="29"/>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:11" ht="14.25" customHeight="1">
+    <row r="460" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="29"/>
       <c r="B460" s="29"/>
       <c r="C460" s="29"/>
@@ -9854,7 +9854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:11" ht="14.25" customHeight="1">
+    <row r="461" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="29"/>
       <c r="B461" s="29"/>
       <c r="C461" s="29"/>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:11" ht="14.25" customHeight="1">
+    <row r="462" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="29"/>
       <c r="B462" s="29"/>
       <c r="C462" s="29"/>
@@ -9892,7 +9892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:11" ht="14.25" customHeight="1">
+    <row r="463" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="29"/>
       <c r="B463" s="29"/>
       <c r="C463" s="29"/>
@@ -9911,7 +9911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:11" ht="14.25" customHeight="1">
+    <row r="464" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="29"/>
       <c r="B464" s="29"/>
       <c r="C464" s="29"/>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:11" ht="14.25" customHeight="1">
+    <row r="465" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="29"/>
       <c r="B465" s="29"/>
       <c r="C465" s="29"/>
@@ -9949,7 +9949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:11" ht="14.25" customHeight="1">
+    <row r="466" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="29"/>
       <c r="B466" s="29"/>
       <c r="C466" s="29"/>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:11" ht="14.25" customHeight="1">
+    <row r="467" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="29"/>
       <c r="B467" s="29"/>
       <c r="C467" s="29"/>
@@ -9987,7 +9987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:11" ht="14.25" customHeight="1">
+    <row r="468" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="29"/>
       <c r="B468" s="29"/>
       <c r="C468" s="29"/>
@@ -10006,7 +10006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:11" ht="14.25" customHeight="1">
+    <row r="469" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="29"/>
       <c r="B469" s="29"/>
       <c r="C469" s="29"/>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:11" ht="14.25" customHeight="1">
+    <row r="470" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="29"/>
       <c r="B470" s="29"/>
       <c r="C470" s="29"/>
@@ -10044,7 +10044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:11" ht="14.25" customHeight="1">
+    <row r="471" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="29"/>
       <c r="B471" s="29"/>
       <c r="C471" s="29"/>
@@ -10063,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:11" ht="14.25" customHeight="1">
+    <row r="472" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="29"/>
       <c r="B472" s="29"/>
       <c r="C472" s="29"/>
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:11" ht="14.25" customHeight="1">
+    <row r="473" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="29"/>
       <c r="B473" s="29"/>
       <c r="C473" s="29"/>
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:11" ht="14.25" customHeight="1">
+    <row r="474" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="29"/>
       <c r="B474" s="29"/>
       <c r="C474" s="29"/>
@@ -10120,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:11" ht="14.25" customHeight="1">
+    <row r="475" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="29"/>
       <c r="B475" s="29"/>
       <c r="C475" s="29"/>
@@ -10139,7 +10139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:11" ht="14.25" customHeight="1">
+    <row r="476" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="29"/>
       <c r="B476" s="29"/>
       <c r="C476" s="29"/>
@@ -10158,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:11" ht="14.25" customHeight="1">
+    <row r="477" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="29"/>
       <c r="B477" s="29"/>
       <c r="C477" s="29"/>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:11" ht="14.25" customHeight="1">
+    <row r="478" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="29"/>
       <c r="B478" s="29"/>
       <c r="C478" s="29"/>
@@ -10196,7 +10196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:11" ht="14.25" customHeight="1">
+    <row r="479" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="29"/>
       <c r="B479" s="29"/>
       <c r="C479" s="29"/>
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:11" ht="14.25" customHeight="1">
+    <row r="480" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="29"/>
       <c r="B480" s="29"/>
       <c r="C480" s="29"/>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:11" ht="14.25" customHeight="1">
+    <row r="481" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="29"/>
       <c r="B481" s="29"/>
       <c r="C481" s="29"/>
@@ -10253,7 +10253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:11" ht="14.25" customHeight="1">
+    <row r="482" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="29"/>
       <c r="B482" s="29"/>
       <c r="C482" s="29"/>
@@ -10272,7 +10272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:11" ht="14.25" customHeight="1">
+    <row r="483" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="29"/>
       <c r="B483" s="29"/>
       <c r="C483" s="29"/>
@@ -10291,7 +10291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:11" ht="14.25" customHeight="1">
+    <row r="484" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="29"/>
       <c r="B484" s="29"/>
       <c r="C484" s="29"/>
@@ -10310,7 +10310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:11" ht="14.25" customHeight="1">
+    <row r="485" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="29"/>
       <c r="B485" s="29"/>
       <c r="C485" s="29"/>
@@ -10329,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:11" ht="14.25" customHeight="1">
+    <row r="486" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="29"/>
       <c r="B486" s="29"/>
       <c r="C486" s="29"/>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:11" ht="14.25" customHeight="1">
+    <row r="487" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="29"/>
       <c r="B487" s="29"/>
       <c r="C487" s="29"/>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:11" ht="14.25" customHeight="1">
+    <row r="488" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="29"/>
       <c r="B488" s="29"/>
       <c r="C488" s="29"/>
@@ -10386,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:11" ht="14.25" customHeight="1">
+    <row r="489" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="29"/>
       <c r="B489" s="29"/>
       <c r="C489" s="29"/>
@@ -10405,7 +10405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:11" ht="14.25" customHeight="1">
+    <row r="490" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="29"/>
       <c r="B490" s="29"/>
       <c r="C490" s="29"/>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:11" ht="14.25" customHeight="1">
+    <row r="491" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="29"/>
       <c r="B491" s="29"/>
       <c r="C491" s="29"/>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:11" ht="14.25" customHeight="1">
+    <row r="492" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="29"/>
       <c r="B492" s="29"/>
       <c r="C492" s="29"/>
@@ -10462,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:11" ht="14.25" customHeight="1">
+    <row r="493" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="29"/>
       <c r="B493" s="29"/>
       <c r="C493" s="29"/>
@@ -10481,7 +10481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:11" ht="14.25" customHeight="1">
+    <row r="494" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="29"/>
       <c r="B494" s="29"/>
       <c r="C494" s="29"/>
@@ -10500,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:11" ht="14.25" customHeight="1">
+    <row r="495" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="29"/>
       <c r="B495" s="29"/>
       <c r="C495" s="29"/>
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:11" ht="14.25" customHeight="1">
+    <row r="496" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="29"/>
       <c r="B496" s="29"/>
       <c r="C496" s="29"/>
@@ -10538,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:11" ht="14.25" customHeight="1">
+    <row r="497" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="29"/>
       <c r="B497" s="29"/>
       <c r="C497" s="29"/>
@@ -10557,7 +10557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:11" ht="14.25" customHeight="1">
+    <row r="498" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="29"/>
       <c r="B498" s="29"/>
       <c r="C498" s="29"/>
@@ -10576,7 +10576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:11" ht="14.25" customHeight="1">
+    <row r="499" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="29"/>
       <c r="B499" s="29"/>
       <c r="C499" s="29"/>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:11" ht="14.25" customHeight="1">
+    <row r="500" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="29"/>
       <c r="B500" s="29"/>
       <c r="C500" s="29"/>
@@ -10614,7 +10614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:11" ht="14.25" customHeight="1">
+    <row r="501" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="29"/>
       <c r="B501" s="29"/>
       <c r="C501" s="29"/>
@@ -10633,7 +10633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:11" ht="14.25" customHeight="1">
+    <row r="502" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="29"/>
       <c r="B502" s="29"/>
       <c r="C502" s="29"/>
@@ -10652,7 +10652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:11" ht="14.25" customHeight="1">
+    <row r="503" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="29"/>
       <c r="B503" s="29"/>
       <c r="C503" s="29"/>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:11" ht="14.25" customHeight="1">
+    <row r="504" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="29"/>
       <c r="B504" s="29"/>
       <c r="C504" s="29"/>
@@ -10690,7 +10690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:11" ht="14.25" customHeight="1">
+    <row r="505" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="29"/>
       <c r="B505" s="29"/>
       <c r="C505" s="29"/>
@@ -10709,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:11" ht="14.25" customHeight="1">
+    <row r="506" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="29"/>
       <c r="B506" s="29"/>
       <c r="C506" s="29"/>
@@ -10728,7 +10728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:11" ht="14.25" customHeight="1">
+    <row r="507" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="29"/>
       <c r="B507" s="29"/>
       <c r="C507" s="29"/>
@@ -10747,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:11" ht="14.25" customHeight="1">
+    <row r="508" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="29"/>
       <c r="B508" s="29"/>
       <c r="C508" s="29"/>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:11" ht="14.25" customHeight="1">
+    <row r="509" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="29"/>
       <c r="B509" s="29"/>
       <c r="C509" s="29"/>
@@ -10785,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:11" ht="14.25" customHeight="1">
+    <row r="510" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="29"/>
       <c r="B510" s="29"/>
       <c r="C510" s="29"/>
@@ -10804,7 +10804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:11" ht="14.25" customHeight="1">
+    <row r="511" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="29"/>
       <c r="B511" s="29"/>
       <c r="C511" s="29"/>
@@ -10823,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:11" ht="14.25" customHeight="1">
+    <row r="512" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="29"/>
       <c r="B512" s="29"/>
       <c r="C512" s="29"/>
@@ -10842,7 +10842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:11" ht="14.25" customHeight="1">
+    <row r="513" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="29"/>
       <c r="B513" s="29"/>
       <c r="C513" s="29"/>
@@ -10861,7 +10861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:11" ht="14.25" customHeight="1">
+    <row r="514" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="29"/>
       <c r="B514" s="29"/>
       <c r="C514" s="29"/>
@@ -10880,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:11" ht="14.25" customHeight="1">
+    <row r="515" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="29"/>
       <c r="B515" s="29"/>
       <c r="C515" s="29"/>
@@ -10899,7 +10899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:11" ht="14.25" customHeight="1">
+    <row r="516" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="29"/>
       <c r="B516" s="29"/>
       <c r="C516" s="29"/>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:11" ht="14.25" customHeight="1">
+    <row r="517" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="29"/>
       <c r="B517" s="29"/>
       <c r="C517" s="29"/>
@@ -10937,7 +10937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:11" ht="14.25" customHeight="1">
+    <row r="518" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="29"/>
       <c r="B518" s="29"/>
       <c r="C518" s="29"/>
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:11" ht="14.25" customHeight="1">
+    <row r="519" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="29"/>
       <c r="B519" s="29"/>
       <c r="C519" s="29"/>
@@ -10975,7 +10975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:11" ht="14.25" customHeight="1">
+    <row r="520" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="29"/>
       <c r="B520" s="29"/>
       <c r="C520" s="29"/>
@@ -10994,7 +10994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:11" ht="14.25" customHeight="1">
+    <row r="521" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="29"/>
       <c r="B521" s="29"/>
       <c r="C521" s="29"/>
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:11" ht="14.25" customHeight="1">
+    <row r="522" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="29"/>
       <c r="B522" s="29"/>
       <c r="C522" s="29"/>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:11" ht="14.25" customHeight="1">
+    <row r="523" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="29"/>
       <c r="B523" s="29"/>
       <c r="C523" s="29"/>
@@ -11051,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:11" ht="14.25" customHeight="1">
+    <row r="524" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="29"/>
       <c r="B524" s="29"/>
       <c r="C524" s="29"/>
@@ -11070,7 +11070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:11" ht="14.25" customHeight="1">
+    <row r="525" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="29"/>
       <c r="B525" s="29"/>
       <c r="C525" s="29"/>
@@ -11089,7 +11089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:11" ht="14.25" customHeight="1">
+    <row r="526" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="29"/>
       <c r="B526" s="29"/>
       <c r="C526" s="29"/>
@@ -11108,7 +11108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:11" ht="14.25" customHeight="1">
+    <row r="527" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="29"/>
       <c r="B527" s="29"/>
       <c r="C527" s="29"/>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:11" ht="14.25" customHeight="1">
+    <row r="528" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="29"/>
       <c r="B528" s="29"/>
       <c r="C528" s="29"/>
@@ -11146,7 +11146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:11" ht="14.25" customHeight="1">
+    <row r="529" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="29"/>
       <c r="B529" s="29"/>
       <c r="C529" s="29"/>
@@ -11165,7 +11165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:11" ht="14.25" customHeight="1">
+    <row r="530" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="29"/>
       <c r="B530" s="29"/>
       <c r="C530" s="29"/>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:11" ht="14.25" customHeight="1">
+    <row r="531" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="29"/>
       <c r="B531" s="29"/>
       <c r="C531" s="29"/>
@@ -11203,7 +11203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:11" ht="14.25" customHeight="1">
+    <row r="532" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="29"/>
       <c r="B532" s="29"/>
       <c r="C532" s="29"/>
@@ -11222,7 +11222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:11" ht="14.25" customHeight="1">
+    <row r="533" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="29"/>
       <c r="B533" s="29"/>
       <c r="C533" s="29"/>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:11" ht="14.25" customHeight="1">
+    <row r="534" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="29"/>
       <c r="B534" s="29"/>
       <c r="C534" s="29"/>
@@ -11260,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:11" ht="14.25" customHeight="1">
+    <row r="535" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="29"/>
       <c r="B535" s="29"/>
       <c r="C535" s="29"/>
@@ -11279,7 +11279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:11" ht="14.25" customHeight="1">
+    <row r="536" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="29"/>
       <c r="B536" s="29"/>
       <c r="C536" s="29"/>
@@ -11298,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:11" ht="14.25" customHeight="1">
+    <row r="537" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="29"/>
       <c r="B537" s="29"/>
       <c r="C537" s="29"/>
@@ -11317,7 +11317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:11" ht="14.25" customHeight="1">
+    <row r="538" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="29"/>
       <c r="B538" s="29"/>
       <c r="C538" s="29"/>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:11" ht="14.25" customHeight="1">
+    <row r="539" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="29"/>
       <c r="B539" s="29"/>
       <c r="C539" s="29"/>
@@ -11355,7 +11355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:11" ht="14.25" customHeight="1">
+    <row r="540" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="29"/>
       <c r="B540" s="29"/>
       <c r="C540" s="29"/>
@@ -11374,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:11" ht="14.25" customHeight="1">
+    <row r="541" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="29"/>
       <c r="B541" s="29"/>
       <c r="C541" s="29"/>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:11" ht="14.25" customHeight="1">
+    <row r="542" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="29"/>
       <c r="B542" s="29"/>
       <c r="C542" s="29"/>
@@ -11412,7 +11412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:11" ht="14.25" customHeight="1">
+    <row r="543" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="29"/>
       <c r="B543" s="29"/>
       <c r="C543" s="29"/>
@@ -11431,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:11" ht="14.25" customHeight="1">
+    <row r="544" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="29"/>
       <c r="B544" s="29"/>
       <c r="C544" s="29"/>
@@ -11450,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:11" ht="14.25" customHeight="1">
+    <row r="545" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="29"/>
       <c r="B545" s="29"/>
       <c r="C545" s="29"/>
@@ -11469,7 +11469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:11" ht="14.25" customHeight="1">
+    <row r="546" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="29"/>
       <c r="B546" s="29"/>
       <c r="C546" s="29"/>
@@ -11488,7 +11488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:11" ht="14.25" customHeight="1">
+    <row r="547" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="29"/>
       <c r="B547" s="29"/>
       <c r="C547" s="29"/>
@@ -11507,7 +11507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:11" ht="14.25" customHeight="1">
+    <row r="548" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="29"/>
       <c r="B548" s="29"/>
       <c r="C548" s="29"/>
@@ -11526,7 +11526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:11" ht="14.25" customHeight="1">
+    <row r="549" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="29"/>
       <c r="B549" s="29"/>
       <c r="C549" s="29"/>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:11" ht="14.25" customHeight="1">
+    <row r="550" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="29"/>
       <c r="B550" s="29"/>
       <c r="C550" s="29"/>
@@ -11564,7 +11564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:11" ht="14.25" customHeight="1">
+    <row r="551" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="29"/>
       <c r="B551" s="29"/>
       <c r="C551" s="29"/>
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:11" ht="14.25" customHeight="1">
+    <row r="552" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="29"/>
       <c r="B552" s="29"/>
       <c r="C552" s="29"/>
@@ -11602,7 +11602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:11" ht="14.25" customHeight="1">
+    <row r="553" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="29"/>
       <c r="B553" s="29"/>
       <c r="C553" s="29"/>
@@ -11621,7 +11621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:11" ht="14.25" customHeight="1">
+    <row r="554" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="29"/>
       <c r="B554" s="29"/>
       <c r="C554" s="29"/>
@@ -11640,7 +11640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:11" ht="14.25" customHeight="1">
+    <row r="555" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="29"/>
       <c r="B555" s="29"/>
       <c r="C555" s="29"/>
@@ -11659,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:11" ht="14.25" customHeight="1">
+    <row r="556" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="29"/>
       <c r="B556" s="29"/>
       <c r="C556" s="29"/>
@@ -11678,7 +11678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:11" ht="14.25" customHeight="1">
+    <row r="557" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="29"/>
       <c r="B557" s="29"/>
       <c r="C557" s="29"/>
@@ -11697,7 +11697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:11" ht="14.25" customHeight="1">
+    <row r="558" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="29"/>
       <c r="B558" s="29"/>
       <c r="C558" s="29"/>
@@ -11716,7 +11716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:11" ht="14.25" customHeight="1">
+    <row r="559" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="29"/>
       <c r="B559" s="29"/>
       <c r="C559" s="29"/>
@@ -11735,7 +11735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:11" ht="14.25" customHeight="1">
+    <row r="560" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="29"/>
       <c r="B560" s="29"/>
       <c r="C560" s="29"/>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:11" ht="14.25" customHeight="1">
+    <row r="561" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="29"/>
       <c r="B561" s="29"/>
       <c r="C561" s="29"/>
@@ -11773,7 +11773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:11" ht="14.25" customHeight="1">
+    <row r="562" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="29"/>
       <c r="B562" s="29"/>
       <c r="C562" s="29"/>
@@ -11792,7 +11792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:11" ht="14.25" customHeight="1">
+    <row r="563" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="29"/>
       <c r="B563" s="29"/>
       <c r="C563" s="29"/>
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:11" ht="14.25" customHeight="1">
+    <row r="564" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="29"/>
       <c r="B564" s="29"/>
       <c r="C564" s="29"/>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:11" ht="14.25" customHeight="1">
+    <row r="565" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="29"/>
       <c r="B565" s="29"/>
       <c r="C565" s="29"/>
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:11" ht="14.25" customHeight="1">
+    <row r="566" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="29"/>
       <c r="B566" s="29"/>
       <c r="C566" s="29"/>
@@ -11868,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:11" ht="14.25" customHeight="1">
+    <row r="567" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="29"/>
       <c r="B567" s="29"/>
       <c r="C567" s="29"/>
@@ -11887,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:11" ht="14.25" customHeight="1">
+    <row r="568" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="29"/>
       <c r="B568" s="29"/>
       <c r="C568" s="29"/>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:11" ht="14.25" customHeight="1">
+    <row r="569" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="29"/>
       <c r="B569" s="29"/>
       <c r="C569" s="29"/>
@@ -11925,7 +11925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:11" ht="14.25" customHeight="1">
+    <row r="570" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="29"/>
       <c r="B570" s="29"/>
       <c r="C570" s="29"/>
@@ -11944,7 +11944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:11" ht="14.25" customHeight="1">
+    <row r="571" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="29"/>
       <c r="B571" s="29"/>
       <c r="C571" s="29"/>
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:11" ht="14.25" customHeight="1">
+    <row r="572" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="29"/>
       <c r="B572" s="29"/>
       <c r="C572" s="29"/>
@@ -11982,7 +11982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:11" ht="14.25" customHeight="1">
+    <row r="573" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="29"/>
       <c r="B573" s="29"/>
       <c r="C573" s="29"/>
@@ -12001,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:11" ht="14.25" customHeight="1">
+    <row r="574" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="29"/>
       <c r="B574" s="29"/>
       <c r="C574" s="29"/>
@@ -12020,7 +12020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:11" ht="14.25" customHeight="1">
+    <row r="575" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="29"/>
       <c r="B575" s="29"/>
       <c r="C575" s="29"/>
@@ -12039,7 +12039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:11" ht="14.25" customHeight="1">
+    <row r="576" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="29"/>
       <c r="B576" s="29"/>
       <c r="C576" s="29"/>
@@ -12058,7 +12058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:11" ht="14.25" customHeight="1">
+    <row r="577" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="29"/>
       <c r="B577" s="29"/>
       <c r="C577" s="29"/>
@@ -12077,7 +12077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:11" ht="14.25" customHeight="1">
+    <row r="578" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="29"/>
       <c r="B578" s="29"/>
       <c r="C578" s="29"/>
@@ -12096,7 +12096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:11" ht="14.25" customHeight="1">
+    <row r="579" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="29"/>
       <c r="B579" s="29"/>
       <c r="C579" s="29"/>
@@ -12115,7 +12115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:11" ht="14.25" customHeight="1">
+    <row r="580" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="29"/>
       <c r="B580" s="29"/>
       <c r="C580" s="29"/>
@@ -12134,7 +12134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:11" ht="14.25" customHeight="1">
+    <row r="581" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="29"/>
       <c r="B581" s="29"/>
       <c r="C581" s="29"/>
@@ -12153,7 +12153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:11" ht="14.25" customHeight="1">
+    <row r="582" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="29"/>
       <c r="B582" s="29"/>
       <c r="C582" s="29"/>
@@ -12172,7 +12172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:11" ht="14.25" customHeight="1">
+    <row r="583" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="29"/>
       <c r="B583" s="29"/>
       <c r="C583" s="29"/>
@@ -12191,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:11" ht="14.25" customHeight="1">
+    <row r="584" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="29"/>
       <c r="B584" s="29"/>
       <c r="C584" s="29"/>
@@ -12210,7 +12210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:11" ht="14.25" customHeight="1">
+    <row r="585" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="29"/>
       <c r="B585" s="29"/>
       <c r="C585" s="29"/>
@@ -12229,7 +12229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:11" ht="14.25" customHeight="1">
+    <row r="586" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="29"/>
       <c r="B586" s="29"/>
       <c r="C586" s="29"/>
@@ -12248,7 +12248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:11" ht="14.25" customHeight="1">
+    <row r="587" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="29"/>
       <c r="B587" s="29"/>
       <c r="C587" s="29"/>
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:11" ht="14.25" customHeight="1">
+    <row r="588" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="29"/>
       <c r="B588" s="29"/>
       <c r="C588" s="29"/>
@@ -12286,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:11" ht="14.25" customHeight="1">
+    <row r="589" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="29"/>
       <c r="B589" s="29"/>
       <c r="C589" s="29"/>
@@ -12305,7 +12305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:11" ht="14.25" customHeight="1">
+    <row r="590" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="29"/>
       <c r="B590" s="29"/>
       <c r="C590" s="29"/>
@@ -12324,7 +12324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:11" ht="14.25" customHeight="1">
+    <row r="591" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="29"/>
       <c r="B591" s="29"/>
       <c r="C591" s="29"/>
@@ -12343,7 +12343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:11" ht="14.25" customHeight="1">
+    <row r="592" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="29"/>
       <c r="B592" s="29"/>
       <c r="C592" s="29"/>
@@ -12362,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:11" ht="14.25" customHeight="1">
+    <row r="593" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="29"/>
       <c r="B593" s="29"/>
       <c r="C593" s="29"/>
@@ -12381,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:11" ht="14.25" customHeight="1">
+    <row r="594" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="29"/>
       <c r="B594" s="29"/>
       <c r="C594" s="29"/>
@@ -12400,7 +12400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:11" ht="14.25" customHeight="1">
+    <row r="595" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="29"/>
       <c r="B595" s="29"/>
       <c r="C595" s="29"/>
@@ -12419,7 +12419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:11" ht="14.25" customHeight="1">
+    <row r="596" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="29"/>
       <c r="B596" s="29"/>
       <c r="C596" s="29"/>
@@ -12438,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:11" ht="14.25" customHeight="1">
+    <row r="597" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="29"/>
       <c r="B597" s="29"/>
       <c r="C597" s="29"/>
@@ -12457,7 +12457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:11" ht="14.25" customHeight="1">
+    <row r="598" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="29"/>
       <c r="B598" s="29"/>
       <c r="C598" s="29"/>
@@ -12476,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:11" ht="14.25" customHeight="1">
+    <row r="599" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="29"/>
       <c r="B599" s="29"/>
       <c r="C599" s="29"/>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:11" ht="14.25" customHeight="1">
+    <row r="600" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="29"/>
       <c r="B600" s="29"/>
       <c r="C600" s="29"/>
@@ -12514,7 +12514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:11" ht="14.25" customHeight="1">
+    <row r="601" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="29"/>
       <c r="B601" s="29"/>
       <c r="C601" s="29"/>
@@ -12533,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:11" ht="14.25" customHeight="1">
+    <row r="602" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="29"/>
       <c r="B602" s="29"/>
       <c r="C602" s="29"/>
@@ -12552,7 +12552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:11" ht="14.25" customHeight="1">
+    <row r="603" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="29"/>
       <c r="B603" s="29"/>
       <c r="C603" s="29"/>
@@ -12571,7 +12571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:11" ht="14.25" customHeight="1">
+    <row r="604" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="29"/>
       <c r="B604" s="29"/>
       <c r="C604" s="29"/>
@@ -12590,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:11" ht="14.25" customHeight="1">
+    <row r="605" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="29"/>
       <c r="B605" s="29"/>
       <c r="C605" s="29"/>
@@ -12609,7 +12609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:11" ht="14.25" customHeight="1">
+    <row r="606" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="29"/>
       <c r="B606" s="29"/>
       <c r="C606" s="29"/>
@@ -12628,7 +12628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:11" ht="14.25" customHeight="1">
+    <row r="607" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="29"/>
       <c r="B607" s="29"/>
       <c r="C607" s="29"/>
@@ -12647,7 +12647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:11" ht="14.25" customHeight="1">
+    <row r="608" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="29"/>
       <c r="B608" s="29"/>
       <c r="C608" s="29"/>
@@ -12666,7 +12666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:11" ht="14.25" customHeight="1">
+    <row r="609" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="29"/>
       <c r="B609" s="29"/>
       <c r="C609" s="29"/>
@@ -12685,7 +12685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:11" ht="14.25" customHeight="1">
+    <row r="610" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="29"/>
       <c r="B610" s="29"/>
       <c r="C610" s="29"/>
@@ -12704,7 +12704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:11" ht="14.25" customHeight="1">
+    <row r="611" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="29"/>
       <c r="B611" s="29"/>
       <c r="C611" s="29"/>
@@ -12723,7 +12723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:11" ht="14.25" customHeight="1">
+    <row r="612" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="29"/>
       <c r="B612" s="29"/>
       <c r="C612" s="29"/>
@@ -12742,7 +12742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:11" ht="14.25" customHeight="1">
+    <row r="613" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="29"/>
       <c r="B613" s="29"/>
       <c r="C613" s="29"/>
@@ -12761,7 +12761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:11" ht="14.25" customHeight="1">
+    <row r="614" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="29"/>
       <c r="B614" s="29"/>
       <c r="C614" s="29"/>
@@ -12780,7 +12780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:11" ht="14.25" customHeight="1">
+    <row r="615" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="29"/>
       <c r="B615" s="29"/>
       <c r="C615" s="29"/>
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:11" ht="14.25" customHeight="1">
+    <row r="616" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="29"/>
       <c r="B616" s="29"/>
       <c r="C616" s="29"/>
@@ -12818,7 +12818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:11" ht="14.25" customHeight="1">
+    <row r="617" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="29"/>
       <c r="B617" s="29"/>
       <c r="C617" s="29"/>
@@ -12837,7 +12837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:11" ht="14.25" customHeight="1">
+    <row r="618" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="29"/>
       <c r="B618" s="29"/>
       <c r="C618" s="29"/>
@@ -12856,7 +12856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:11" ht="14.25" customHeight="1">
+    <row r="619" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="29"/>
       <c r="B619" s="29"/>
       <c r="C619" s="29"/>
@@ -12875,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:11" ht="14.25" customHeight="1">
+    <row r="620" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="29"/>
       <c r="B620" s="29"/>
       <c r="C620" s="29"/>
@@ -12894,7 +12894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:11" ht="14.25" customHeight="1">
+    <row r="621" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="29"/>
       <c r="B621" s="29"/>
       <c r="C621" s="29"/>
@@ -12913,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:11" ht="14.25" customHeight="1">
+    <row r="622" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="29"/>
       <c r="B622" s="29"/>
       <c r="C622" s="29"/>
@@ -12932,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:11" ht="14.25" customHeight="1">
+    <row r="623" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="29"/>
       <c r="B623" s="29"/>
       <c r="C623" s="29"/>
@@ -12951,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:11" ht="14.25" customHeight="1">
+    <row r="624" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="29"/>
       <c r="B624" s="29"/>
       <c r="C624" s="29"/>
@@ -12970,7 +12970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:11" ht="14.25" customHeight="1">
+    <row r="625" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="29"/>
       <c r="B625" s="29"/>
       <c r="C625" s="29"/>
@@ -12989,7 +12989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:11" ht="14.25" customHeight="1">
+    <row r="626" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="29"/>
       <c r="B626" s="29"/>
       <c r="C626" s="29"/>
@@ -13008,7 +13008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:11" ht="14.25" customHeight="1">
+    <row r="627" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="29"/>
       <c r="B627" s="29"/>
       <c r="C627" s="29"/>
@@ -13027,7 +13027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:11" ht="14.25" customHeight="1">
+    <row r="628" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="29"/>
       <c r="B628" s="29"/>
       <c r="C628" s="29"/>
@@ -13046,7 +13046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:11" ht="14.25" customHeight="1">
+    <row r="629" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="29"/>
       <c r="B629" s="29"/>
       <c r="C629" s="29"/>
@@ -13065,7 +13065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:11" ht="14.25" customHeight="1">
+    <row r="630" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="29"/>
       <c r="B630" s="29"/>
       <c r="C630" s="29"/>
@@ -13084,7 +13084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:11" ht="14.25" customHeight="1">
+    <row r="631" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="29"/>
       <c r="B631" s="29"/>
       <c r="C631" s="29"/>
@@ -13103,7 +13103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:11" ht="14.25" customHeight="1">
+    <row r="632" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="29"/>
       <c r="B632" s="29"/>
       <c r="C632" s="29"/>
@@ -13122,7 +13122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:11" ht="14.25" customHeight="1">
+    <row r="633" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="29"/>
       <c r="B633" s="29"/>
       <c r="C633" s="29"/>
@@ -13141,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:11" ht="14.25" customHeight="1">
+    <row r="634" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="29"/>
       <c r="B634" s="29"/>
       <c r="C634" s="29"/>
@@ -13160,7 +13160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:11" ht="14.25" customHeight="1">
+    <row r="635" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="29"/>
       <c r="B635" s="29"/>
       <c r="C635" s="29"/>
@@ -13179,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:11" ht="14.25" customHeight="1">
+    <row r="636" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="29"/>
       <c r="B636" s="29"/>
       <c r="C636" s="29"/>
@@ -13198,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:11" ht="14.25" customHeight="1">
+    <row r="637" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="29"/>
       <c r="B637" s="29"/>
       <c r="C637" s="29"/>
@@ -13217,7 +13217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:11" ht="14.25" customHeight="1">
+    <row r="638" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="29"/>
       <c r="B638" s="29"/>
       <c r="C638" s="29"/>
@@ -13236,7 +13236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:11" ht="14.25" customHeight="1">
+    <row r="639" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="29"/>
       <c r="B639" s="29"/>
       <c r="C639" s="29"/>
@@ -13255,7 +13255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:11" ht="14.25" customHeight="1">
+    <row r="640" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="29"/>
       <c r="B640" s="29"/>
       <c r="C640" s="29"/>
@@ -13274,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:11" ht="14.25" customHeight="1">
+    <row r="641" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="29"/>
       <c r="B641" s="29"/>
       <c r="C641" s="29"/>
@@ -13293,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:11" ht="14.25" customHeight="1">
+    <row r="642" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="29"/>
       <c r="B642" s="29"/>
       <c r="C642" s="29"/>
@@ -13312,7 +13312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:11" ht="14.25" customHeight="1">
+    <row r="643" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="29"/>
       <c r="B643" s="29"/>
       <c r="C643" s="29"/>
@@ -13331,7 +13331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:11" ht="14.25" customHeight="1">
+    <row r="644" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="29"/>
       <c r="B644" s="29"/>
       <c r="C644" s="29"/>
@@ -13350,7 +13350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:11" ht="14.25" customHeight="1">
+    <row r="645" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="29"/>
       <c r="B645" s="29"/>
       <c r="C645" s="29"/>
@@ -13369,7 +13369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:11" ht="14.25" customHeight="1">
+    <row r="646" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="29"/>
       <c r="B646" s="29"/>
       <c r="C646" s="29"/>
@@ -13388,7 +13388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:11" ht="14.25" customHeight="1">
+    <row r="647" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="29"/>
       <c r="B647" s="29"/>
       <c r="C647" s="29"/>
@@ -13407,7 +13407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:11" ht="14.25" customHeight="1">
+    <row r="648" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="29"/>
       <c r="B648" s="29"/>
       <c r="C648" s="29"/>
@@ -13426,7 +13426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:11" ht="14.25" customHeight="1">
+    <row r="649" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="29"/>
       <c r="B649" s="29"/>
       <c r="C649" s="29"/>
@@ -13445,7 +13445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:11" ht="14.25" customHeight="1">
+    <row r="650" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="29"/>
       <c r="B650" s="29"/>
       <c r="C650" s="29"/>
@@ -13464,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:11" ht="14.25" customHeight="1">
+    <row r="651" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="29"/>
       <c r="B651" s="29"/>
       <c r="C651" s="29"/>
@@ -13483,7 +13483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:11" ht="14.25" customHeight="1">
+    <row r="652" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="29"/>
       <c r="B652" s="29"/>
       <c r="C652" s="29"/>
@@ -13502,7 +13502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:11" ht="14.25" customHeight="1">
+    <row r="653" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="29"/>
       <c r="B653" s="29"/>
       <c r="C653" s="29"/>
@@ -13521,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:11" ht="14.25" customHeight="1">
+    <row r="654" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="29"/>
       <c r="B654" s="29"/>
       <c r="C654" s="29"/>
@@ -13540,7 +13540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:11" ht="14.25" customHeight="1">
+    <row r="655" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="29"/>
       <c r="B655" s="29"/>
       <c r="C655" s="29"/>
@@ -13559,7 +13559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:11" ht="14.25" customHeight="1">
+    <row r="656" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="29"/>
       <c r="B656" s="29"/>
       <c r="C656" s="29"/>
@@ -13578,7 +13578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:11" ht="14.25" customHeight="1">
+    <row r="657" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="29"/>
       <c r="B657" s="29"/>
       <c r="C657" s="29"/>
@@ -13597,7 +13597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:11" ht="14.25" customHeight="1">
+    <row r="658" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="29"/>
       <c r="B658" s="29"/>
       <c r="C658" s="29"/>
@@ -13616,7 +13616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:11" ht="14.25" customHeight="1">
+    <row r="659" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="29"/>
       <c r="B659" s="29"/>
       <c r="C659" s="29"/>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:11" ht="14.25" customHeight="1">
+    <row r="660" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="29"/>
       <c r="B660" s="29"/>
       <c r="C660" s="29"/>
@@ -13654,7 +13654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:11" ht="14.25" customHeight="1">
+    <row r="661" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="29"/>
       <c r="B661" s="29"/>
       <c r="C661" s="29"/>
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:11" ht="14.25" customHeight="1">
+    <row r="662" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="29"/>
       <c r="B662" s="29"/>
       <c r="C662" s="29"/>
@@ -13692,7 +13692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:11" ht="14.25" customHeight="1">
+    <row r="663" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="29"/>
       <c r="B663" s="29"/>
       <c r="C663" s="29"/>
@@ -13711,7 +13711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:11" ht="14.25" customHeight="1">
+    <row r="664" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="29"/>
       <c r="B664" s="29"/>
       <c r="C664" s="29"/>
@@ -13730,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:11" ht="14.25" customHeight="1">
+    <row r="665" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="29"/>
       <c r="B665" s="29"/>
       <c r="C665" s="29"/>
@@ -13749,7 +13749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:11" ht="14.25" customHeight="1">
+    <row r="666" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="29"/>
       <c r="B666" s="29"/>
       <c r="C666" s="29"/>
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:11" ht="14.25" customHeight="1">
+    <row r="667" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="29"/>
       <c r="B667" s="29"/>
       <c r="C667" s="29"/>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:11" ht="14.25" customHeight="1">
+    <row r="668" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="29"/>
       <c r="B668" s="29"/>
       <c r="C668" s="29"/>
@@ -13806,7 +13806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:11" ht="14.25" customHeight="1">
+    <row r="669" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="29"/>
       <c r="B669" s="29"/>
       <c r="C669" s="29"/>
@@ -13825,7 +13825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:11" ht="14.25" customHeight="1">
+    <row r="670" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="29"/>
       <c r="B670" s="29"/>
       <c r="C670" s="29"/>
@@ -13844,7 +13844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:11" ht="14.25" customHeight="1">
+    <row r="671" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="29"/>
       <c r="B671" s="29"/>
       <c r="C671" s="29"/>
@@ -13863,7 +13863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:11" ht="14.25" customHeight="1">
+    <row r="672" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="29"/>
       <c r="B672" s="29"/>
       <c r="C672" s="29"/>
@@ -13882,7 +13882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:11" ht="14.25" customHeight="1">
+    <row r="673" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="29"/>
       <c r="B673" s="29"/>
       <c r="C673" s="29"/>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:11" ht="14.25" customHeight="1">
+    <row r="674" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="29"/>
       <c r="B674" s="29"/>
       <c r="C674" s="29"/>
@@ -13920,7 +13920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:11" ht="14.25" customHeight="1">
+    <row r="675" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="29"/>
       <c r="B675" s="29"/>
       <c r="C675" s="29"/>
@@ -13939,7 +13939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:11" ht="14.25" customHeight="1">
+    <row r="676" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="29"/>
       <c r="B676" s="29"/>
       <c r="C676" s="29"/>
@@ -13958,7 +13958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:11" ht="14.25" customHeight="1">
+    <row r="677" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="29"/>
       <c r="B677" s="29"/>
       <c r="C677" s="29"/>
@@ -13977,7 +13977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:11" ht="14.25" customHeight="1">
+    <row r="678" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="29"/>
       <c r="B678" s="29"/>
       <c r="C678" s="29"/>
@@ -13996,7 +13996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:11" ht="14.25" customHeight="1">
+    <row r="679" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="29"/>
       <c r="B679" s="29"/>
       <c r="C679" s="29"/>
@@ -14015,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:11" ht="14.25" customHeight="1">
+    <row r="680" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="29"/>
       <c r="B680" s="29"/>
       <c r="C680" s="29"/>
@@ -14034,7 +14034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:11" ht="14.25" customHeight="1">
+    <row r="681" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="29"/>
       <c r="B681" s="29"/>
       <c r="C681" s="29"/>
@@ -14053,7 +14053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:11" ht="14.25" customHeight="1">
+    <row r="682" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="29"/>
       <c r="B682" s="29"/>
       <c r="C682" s="29"/>
@@ -14072,7 +14072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:11" ht="14.25" customHeight="1">
+    <row r="683" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="29"/>
       <c r="B683" s="29"/>
       <c r="C683" s="29"/>
@@ -14091,7 +14091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:11" ht="14.25" customHeight="1">
+    <row r="684" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="29"/>
       <c r="B684" s="29"/>
       <c r="C684" s="29"/>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:11" ht="14.25" customHeight="1">
+    <row r="685" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="29"/>
       <c r="B685" s="29"/>
       <c r="C685" s="29"/>
@@ -14129,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:11" ht="14.25" customHeight="1">
+    <row r="686" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="29"/>
       <c r="B686" s="29"/>
       <c r="C686" s="29"/>
@@ -14148,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:11" ht="14.25" customHeight="1">
+    <row r="687" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="29"/>
       <c r="B687" s="29"/>
       <c r="C687" s="29"/>
@@ -14167,7 +14167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:11" ht="14.25" customHeight="1">
+    <row r="688" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="29"/>
       <c r="B688" s="29"/>
       <c r="C688" s="29"/>
@@ -14186,7 +14186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:11" ht="14.25" customHeight="1">
+    <row r="689" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="29"/>
       <c r="B689" s="29"/>
       <c r="C689" s="29"/>
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:11" ht="14.25" customHeight="1">
+    <row r="690" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="29"/>
       <c r="B690" s="29"/>
       <c r="C690" s="29"/>
@@ -14224,7 +14224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:11" ht="14.25" customHeight="1">
+    <row r="691" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="29"/>
       <c r="B691" s="29"/>
       <c r="C691" s="29"/>
@@ -14243,7 +14243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:11" ht="14.25" customHeight="1">
+    <row r="692" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="29"/>
       <c r="B692" s="29"/>
       <c r="C692" s="29"/>
@@ -14262,7 +14262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:11" ht="14.25" customHeight="1">
+    <row r="693" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="29"/>
       <c r="B693" s="29"/>
       <c r="C693" s="29"/>
@@ -14281,7 +14281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:11" ht="14.25" customHeight="1">
+    <row r="694" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="29"/>
       <c r="B694" s="29"/>
       <c r="C694" s="29"/>
@@ -14300,7 +14300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:11" ht="14.25" customHeight="1">
+    <row r="695" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="29"/>
       <c r="B695" s="29"/>
       <c r="C695" s="29"/>
@@ -14319,7 +14319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:11" ht="14.25" customHeight="1">
+    <row r="696" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="29"/>
       <c r="B696" s="29"/>
       <c r="C696" s="29"/>
@@ -14338,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:11" ht="14.25" customHeight="1">
+    <row r="697" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="29"/>
       <c r="B697" s="29"/>
       <c r="C697" s="29"/>
@@ -14357,7 +14357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:11" ht="14.25" customHeight="1">
+    <row r="698" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="29"/>
       <c r="B698" s="29"/>
       <c r="C698" s="29"/>
@@ -14376,7 +14376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:11" ht="14.25" customHeight="1">
+    <row r="699" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="29"/>
       <c r="B699" s="29"/>
       <c r="C699" s="29"/>
@@ -14395,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="700" spans="1:11" ht="14.25" customHeight="1">
+    <row r="700" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="29"/>
       <c r="B700" s="29"/>
       <c r="C700" s="29"/>
@@ -14414,7 +14414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="701" spans="1:11" ht="14.25" customHeight="1">
+    <row r="701" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="29"/>
       <c r="B701" s="29"/>
       <c r="C701" s="29"/>
@@ -14433,7 +14433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="702" spans="1:11" ht="14.25" customHeight="1">
+    <row r="702" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="29"/>
       <c r="B702" s="29"/>
       <c r="C702" s="29"/>
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="703" spans="1:11" ht="14.25" customHeight="1">
+    <row r="703" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="29"/>
       <c r="B703" s="29"/>
       <c r="C703" s="29"/>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:11" ht="14.25" customHeight="1">
+    <row r="704" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="29"/>
       <c r="B704" s="29"/>
       <c r="C704" s="29"/>
@@ -14490,7 +14490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="705" spans="1:11" ht="14.25" customHeight="1">
+    <row r="705" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="29"/>
       <c r="B705" s="29"/>
       <c r="C705" s="29"/>
@@ -14509,7 +14509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="706" spans="1:11" ht="14.25" customHeight="1">
+    <row r="706" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="29"/>
       <c r="B706" s="29"/>
       <c r="C706" s="29"/>
@@ -14528,7 +14528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="707" spans="1:11" ht="14.25" customHeight="1">
+    <row r="707" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="29"/>
       <c r="B707" s="29"/>
       <c r="C707" s="29"/>
@@ -14547,7 +14547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="708" spans="1:11" ht="14.25" customHeight="1">
+    <row r="708" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="29"/>
       <c r="B708" s="29"/>
       <c r="C708" s="29"/>
@@ -14566,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:11" ht="14.25" customHeight="1">
+    <row r="709" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="29"/>
       <c r="B709" s="29"/>
       <c r="C709" s="29"/>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="710" spans="1:11" ht="14.25" customHeight="1">
+    <row r="710" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="29"/>
       <c r="B710" s="29"/>
       <c r="C710" s="29"/>
@@ -14604,7 +14604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="711" spans="1:11" ht="14.25" customHeight="1">
+    <row r="711" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="29"/>
       <c r="B711" s="29"/>
       <c r="C711" s="29"/>
@@ -14623,7 +14623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="712" spans="1:11" ht="14.25" customHeight="1">
+    <row r="712" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="29"/>
       <c r="B712" s="29"/>
       <c r="C712" s="29"/>
@@ -14642,7 +14642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="713" spans="1:11" ht="14.25" customHeight="1">
+    <row r="713" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="29"/>
       <c r="B713" s="29"/>
       <c r="C713" s="29"/>
@@ -14661,7 +14661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:11" ht="14.25" customHeight="1">
+    <row r="714" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="29"/>
       <c r="B714" s="29"/>
       <c r="C714" s="29"/>
@@ -14680,7 +14680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="715" spans="1:11" ht="14.25" customHeight="1">
+    <row r="715" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="29"/>
       <c r="B715" s="29"/>
       <c r="C715" s="29"/>
@@ -14699,7 +14699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="716" spans="1:11" ht="14.25" customHeight="1">
+    <row r="716" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="29"/>
       <c r="B716" s="29"/>
       <c r="C716" s="29"/>
@@ -14718,7 +14718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:11" ht="14.25" customHeight="1">
+    <row r="717" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="29"/>
       <c r="B717" s="29"/>
       <c r="C717" s="29"/>
@@ -14737,7 +14737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="718" spans="1:11" ht="14.25" customHeight="1">
+    <row r="718" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="29"/>
       <c r="B718" s="29"/>
       <c r="C718" s="29"/>
@@ -14756,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:11" ht="14.25" customHeight="1">
+    <row r="719" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="29"/>
       <c r="B719" s="29"/>
       <c r="C719" s="29"/>
@@ -14775,7 +14775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="720" spans="1:11" ht="14.25" customHeight="1">
+    <row r="720" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="29"/>
       <c r="B720" s="29"/>
       <c r="C720" s="29"/>
@@ -14794,7 +14794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:11" ht="14.25" customHeight="1">
+    <row r="721" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="29"/>
       <c r="B721" s="29"/>
       <c r="C721" s="29"/>
@@ -14813,7 +14813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="722" spans="1:11" ht="14.25" customHeight="1">
+    <row r="722" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="29"/>
       <c r="B722" s="29"/>
       <c r="C722" s="29"/>
@@ -14832,7 +14832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="723" spans="1:11" ht="14.25" customHeight="1">
+    <row r="723" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="29"/>
       <c r="B723" s="29"/>
       <c r="C723" s="29"/>
@@ -14851,7 +14851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:11" ht="14.25" customHeight="1">
+    <row r="724" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="29"/>
       <c r="B724" s="29"/>
       <c r="C724" s="29"/>
@@ -14870,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="725" spans="1:11" ht="14.25" customHeight="1">
+    <row r="725" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="29"/>
       <c r="B725" s="29"/>
       <c r="C725" s="29"/>
@@ -14889,7 +14889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="726" spans="1:11" ht="14.25" customHeight="1">
+    <row r="726" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="29"/>
       <c r="B726" s="29"/>
       <c r="C726" s="29"/>
@@ -14908,7 +14908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="727" spans="1:11" ht="14.25" customHeight="1">
+    <row r="727" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="29"/>
       <c r="B727" s="29"/>
       <c r="C727" s="29"/>
@@ -14927,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="728" spans="1:11" ht="14.25" customHeight="1">
+    <row r="728" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="29"/>
       <c r="B728" s="29"/>
       <c r="C728" s="29"/>
@@ -14946,7 +14946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:11" ht="14.25" customHeight="1">
+    <row r="729" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="29"/>
       <c r="B729" s="29"/>
       <c r="C729" s="29"/>
@@ -14965,7 +14965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="730" spans="1:11" ht="14.25" customHeight="1">
+    <row r="730" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="29"/>
       <c r="B730" s="29"/>
       <c r="C730" s="29"/>
@@ -14984,7 +14984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="731" spans="1:11" ht="14.25" customHeight="1">
+    <row r="731" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="29"/>
       <c r="B731" s="29"/>
       <c r="C731" s="29"/>
@@ -15003,7 +15003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="732" spans="1:11" ht="14.25" customHeight="1">
+    <row r="732" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="29"/>
       <c r="B732" s="29"/>
       <c r="C732" s="29"/>
@@ -15022,7 +15022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="733" spans="1:11" ht="14.25" customHeight="1">
+    <row r="733" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="29"/>
       <c r="B733" s="29"/>
       <c r="C733" s="29"/>
@@ -15041,7 +15041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="734" spans="1:11" ht="14.25" customHeight="1">
+    <row r="734" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="29"/>
       <c r="B734" s="29"/>
       <c r="C734" s="29"/>
@@ -15060,7 +15060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="735" spans="1:11" ht="14.25" customHeight="1">
+    <row r="735" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="29"/>
       <c r="B735" s="29"/>
       <c r="C735" s="29"/>
@@ -15079,7 +15079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:11" ht="14.25" customHeight="1">
+    <row r="736" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="29"/>
       <c r="B736" s="29"/>
       <c r="C736" s="29"/>
@@ -15098,7 +15098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:11" ht="14.25" customHeight="1">
+    <row r="737" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="29"/>
       <c r="B737" s="29"/>
       <c r="C737" s="29"/>
@@ -15117,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="738" spans="1:11" ht="14.25" customHeight="1">
+    <row r="738" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="29"/>
       <c r="B738" s="29"/>
       <c r="C738" s="29"/>
@@ -15136,7 +15136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="739" spans="1:11" ht="14.25" customHeight="1">
+    <row r="739" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="29"/>
       <c r="B739" s="29"/>
       <c r="C739" s="29"/>
@@ -15155,7 +15155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="740" spans="1:11" ht="14.25" customHeight="1">
+    <row r="740" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="29"/>
       <c r="B740" s="29"/>
       <c r="C740" s="29"/>
@@ -15174,7 +15174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="741" spans="1:11" ht="14.25" customHeight="1">
+    <row r="741" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="29"/>
       <c r="B741" s="29"/>
       <c r="C741" s="29"/>
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:11" ht="14.25" customHeight="1">
+    <row r="742" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="29"/>
       <c r="B742" s="29"/>
       <c r="C742" s="29"/>
@@ -15212,7 +15212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="743" spans="1:11" ht="14.25" customHeight="1">
+    <row r="743" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="29"/>
       <c r="B743" s="29"/>
       <c r="C743" s="29"/>
@@ -15231,7 +15231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="744" spans="1:11" ht="14.25" customHeight="1">
+    <row r="744" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="29"/>
       <c r="B744" s="29"/>
       <c r="C744" s="29"/>
@@ -15250,7 +15250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="745" spans="1:11" ht="14.25" customHeight="1">
+    <row r="745" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="29"/>
       <c r="B745" s="29"/>
       <c r="C745" s="29"/>
@@ -15269,7 +15269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:11" ht="14.25" customHeight="1">
+    <row r="746" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="29"/>
       <c r="B746" s="29"/>
       <c r="C746" s="29"/>
@@ -15288,7 +15288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="747" spans="1:11" ht="14.25" customHeight="1">
+    <row r="747" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="29"/>
       <c r="B747" s="29"/>
       <c r="C747" s="29"/>
@@ -15307,7 +15307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="748" spans="1:11" ht="14.25" customHeight="1">
+    <row r="748" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="29"/>
       <c r="B748" s="29"/>
       <c r="C748" s="29"/>
@@ -15326,7 +15326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="749" spans="1:11" ht="14.25" customHeight="1">
+    <row r="749" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="29"/>
       <c r="B749" s="29"/>
       <c r="C749" s="29"/>
@@ -15345,7 +15345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:11" ht="14.25" customHeight="1">
+    <row r="750" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="29"/>
       <c r="B750" s="29"/>
       <c r="C750" s="29"/>
@@ -15364,7 +15364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="751" spans="1:11" ht="14.25" customHeight="1">
+    <row r="751" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="29"/>
       <c r="B751" s="29"/>
       <c r="C751" s="29"/>
@@ -15383,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="752" spans="1:11" ht="14.25" customHeight="1">
+    <row r="752" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="29"/>
       <c r="B752" s="29"/>
       <c r="C752" s="29"/>
@@ -15402,7 +15402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="753" spans="1:11" ht="14.25" customHeight="1">
+    <row r="753" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="29"/>
       <c r="B753" s="29"/>
       <c r="C753" s="29"/>
@@ -15421,7 +15421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:11" ht="14.25" customHeight="1">
+    <row r="754" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="29"/>
       <c r="B754" s="29"/>
       <c r="C754" s="29"/>
@@ -15440,7 +15440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="755" spans="1:11" ht="14.25" customHeight="1">
+    <row r="755" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="29"/>
       <c r="B755" s="29"/>
       <c r="C755" s="29"/>
@@ -15459,7 +15459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:11" ht="14.25" customHeight="1">
+    <row r="756" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="29"/>
       <c r="B756" s="29"/>
       <c r="C756" s="29"/>
@@ -15478,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="757" spans="1:11" ht="14.25" customHeight="1">
+    <row r="757" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="29"/>
       <c r="B757" s="29"/>
       <c r="C757" s="29"/>
@@ -15497,7 +15497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="758" spans="1:11" ht="14.25" customHeight="1">
+    <row r="758" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="29"/>
       <c r="B758" s="29"/>
       <c r="C758" s="29"/>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="759" spans="1:11" ht="14.25" customHeight="1">
+    <row r="759" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="29"/>
       <c r="B759" s="29"/>
       <c r="C759" s="29"/>
@@ -15535,7 +15535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:11" ht="14.25" customHeight="1">
+    <row r="760" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="29"/>
       <c r="B760" s="29"/>
       <c r="C760" s="29"/>
@@ -15554,7 +15554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="761" spans="1:11" ht="14.25" customHeight="1">
+    <row r="761" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="29"/>
       <c r="B761" s="29"/>
       <c r="C761" s="29"/>
@@ -15573,7 +15573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="762" spans="1:11" ht="14.25" customHeight="1">
+    <row r="762" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="29"/>
       <c r="B762" s="29"/>
       <c r="C762" s="29"/>
@@ -15592,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="763" spans="1:11" ht="14.25" customHeight="1">
+    <row r="763" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="29"/>
       <c r="B763" s="29"/>
       <c r="C763" s="29"/>
@@ -15611,7 +15611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="764" spans="1:11" ht="14.25" customHeight="1">
+    <row r="764" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="29"/>
       <c r="B764" s="29"/>
       <c r="C764" s="29"/>
@@ -15630,7 +15630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:11" ht="14.25" customHeight="1">
+    <row r="765" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="29"/>
       <c r="B765" s="29"/>
       <c r="C765" s="29"/>
@@ -15649,7 +15649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="766" spans="1:11" ht="14.25" customHeight="1">
+    <row r="766" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="29"/>
       <c r="B766" s="29"/>
       <c r="C766" s="29"/>
@@ -15668,7 +15668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="767" spans="1:11" ht="14.25" customHeight="1">
+    <row r="767" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="29"/>
       <c r="B767" s="29"/>
       <c r="C767" s="29"/>
@@ -15687,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="768" spans="1:11" ht="14.25" customHeight="1">
+    <row r="768" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="29"/>
       <c r="B768" s="29"/>
       <c r="C768" s="29"/>
@@ -15706,7 +15706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:11" ht="14.25" customHeight="1">
+    <row r="769" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="29"/>
       <c r="B769" s="29"/>
       <c r="C769" s="29"/>
@@ -15725,7 +15725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:11" ht="14.25" customHeight="1">
+    <row r="770" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="29"/>
       <c r="B770" s="29"/>
       <c r="C770" s="29"/>
@@ -15744,7 +15744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="771" spans="1:11" ht="14.25" customHeight="1">
+    <row r="771" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="29"/>
       <c r="B771" s="29"/>
       <c r="C771" s="29"/>
@@ -15763,7 +15763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="772" spans="1:11" ht="14.25" customHeight="1">
+    <row r="772" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="29"/>
       <c r="B772" s="29"/>
       <c r="C772" s="29"/>
@@ -15782,7 +15782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:11" ht="14.25" customHeight="1">
+    <row r="773" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="29"/>
       <c r="B773" s="29"/>
       <c r="C773" s="29"/>
@@ -15801,7 +15801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="774" spans="1:11" ht="14.25" customHeight="1">
+    <row r="774" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="29"/>
       <c r="B774" s="29"/>
       <c r="C774" s="29"/>
@@ -15820,7 +15820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="775" spans="1:11" ht="14.25" customHeight="1">
+    <row r="775" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="29"/>
       <c r="B775" s="29"/>
       <c r="C775" s="29"/>
@@ -15839,7 +15839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="776" spans="1:11" ht="14.25" customHeight="1">
+    <row r="776" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="29"/>
       <c r="B776" s="29"/>
       <c r="C776" s="29"/>
@@ -15858,7 +15858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="777" spans="1:11" ht="14.25" customHeight="1">
+    <row r="777" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="29"/>
       <c r="B777" s="29"/>
       <c r="C777" s="29"/>
@@ -15877,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="778" spans="1:11" ht="14.25" customHeight="1">
+    <row r="778" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="29"/>
       <c r="B778" s="29"/>
       <c r="C778" s="29"/>
@@ -15896,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:11" ht="14.25" customHeight="1">
+    <row r="779" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="29"/>
       <c r="B779" s="29"/>
       <c r="C779" s="29"/>
@@ -15915,7 +15915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="780" spans="1:11" ht="14.25" customHeight="1">
+    <row r="780" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="29"/>
       <c r="B780" s="29"/>
       <c r="C780" s="29"/>
@@ -15934,7 +15934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="781" spans="1:11" ht="14.25" customHeight="1">
+    <row r="781" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="29"/>
       <c r="B781" s="29"/>
       <c r="C781" s="29"/>
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:11" ht="14.25" customHeight="1">
+    <row r="782" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="29"/>
       <c r="B782" s="29"/>
       <c r="C782" s="29"/>
@@ -15972,7 +15972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="783" spans="1:11" ht="14.25" customHeight="1">
+    <row r="783" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="29"/>
       <c r="B783" s="29"/>
       <c r="C783" s="29"/>
@@ -15991,7 +15991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="784" spans="1:11" ht="14.25" customHeight="1">
+    <row r="784" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="29"/>
       <c r="B784" s="29"/>
       <c r="C784" s="29"/>
@@ -16010,7 +16010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:11" ht="14.25" customHeight="1">
+    <row r="785" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="29"/>
       <c r="B785" s="29"/>
       <c r="C785" s="29"/>
@@ -16029,7 +16029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="786" spans="1:11" ht="14.25" customHeight="1">
+    <row r="786" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="29"/>
       <c r="B786" s="29"/>
       <c r="C786" s="29"/>
@@ -16048,7 +16048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:11" ht="14.25" customHeight="1">
+    <row r="787" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="29"/>
       <c r="B787" s="29"/>
       <c r="C787" s="29"/>
@@ -16067,7 +16067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="788" spans="1:11" ht="14.25" customHeight="1">
+    <row r="788" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="29"/>
       <c r="B788" s="29"/>
       <c r="C788" s="29"/>
@@ -16086,7 +16086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:11" ht="14.25" customHeight="1">
+    <row r="789" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="29"/>
       <c r="B789" s="29"/>
       <c r="C789" s="29"/>
@@ -16105,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="790" spans="1:11" ht="14.25" customHeight="1">
+    <row r="790" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="29"/>
       <c r="B790" s="29"/>
       <c r="C790" s="29"/>
@@ -16124,7 +16124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="791" spans="1:11" ht="14.25" customHeight="1">
+    <row r="791" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="29"/>
       <c r="B791" s="29"/>
       <c r="C791" s="29"/>
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:11" ht="14.25" customHeight="1">
+    <row r="792" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="29"/>
       <c r="B792" s="29"/>
       <c r="C792" s="29"/>
@@ -16162,7 +16162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="793" spans="1:11" ht="14.25" customHeight="1">
+    <row r="793" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="29"/>
       <c r="B793" s="29"/>
       <c r="C793" s="29"/>
@@ -16181,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="794" spans="1:11" ht="14.25" customHeight="1">
+    <row r="794" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="29"/>
       <c r="B794" s="29"/>
       <c r="C794" s="29"/>
@@ -16200,7 +16200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="795" spans="1:11" ht="14.25" customHeight="1">
+    <row r="795" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="29"/>
       <c r="B795" s="29"/>
       <c r="C795" s="29"/>
@@ -16219,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="796" spans="1:11" ht="14.25" customHeight="1">
+    <row r="796" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="29"/>
       <c r="B796" s="29"/>
       <c r="C796" s="29"/>
@@ -16238,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="797" spans="1:11" ht="14.25" customHeight="1">
+    <row r="797" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="29"/>
       <c r="B797" s="29"/>
       <c r="C797" s="29"/>
@@ -16257,7 +16257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="798" spans="1:11" ht="14.25" customHeight="1">
+    <row r="798" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="29"/>
       <c r="B798" s="29"/>
       <c r="C798" s="29"/>
@@ -16276,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:11" ht="14.25" customHeight="1">
+    <row r="799" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="29"/>
       <c r="B799" s="29"/>
       <c r="C799" s="29"/>
@@ -16295,7 +16295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="800" spans="1:11" ht="14.25" customHeight="1">
+    <row r="800" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="29"/>
       <c r="B800" s="29"/>
       <c r="C800" s="29"/>
@@ -16314,7 +16314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="801" spans="1:11" ht="14.25" customHeight="1">
+    <row r="801" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="29"/>
       <c r="B801" s="29"/>
       <c r="C801" s="29"/>
@@ -16333,7 +16333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="802" spans="1:11" ht="14.25" customHeight="1">
+    <row r="802" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="29"/>
       <c r="B802" s="29"/>
       <c r="C802" s="29"/>
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="803" spans="1:11" ht="14.25" customHeight="1">
+    <row r="803" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="29"/>
       <c r="B803" s="29"/>
       <c r="C803" s="29"/>
@@ -16371,7 +16371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="804" spans="1:11" ht="14.25" customHeight="1">
+    <row r="804" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="29"/>
       <c r="B804" s="29"/>
       <c r="C804" s="29"/>
@@ -16390,7 +16390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="805" spans="1:11" ht="14.25" customHeight="1">
+    <row r="805" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="29"/>
       <c r="B805" s="29"/>
       <c r="C805" s="29"/>
@@ -16409,7 +16409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="806" spans="1:11" ht="14.25" customHeight="1">
+    <row r="806" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="29"/>
       <c r="B806" s="29"/>
       <c r="C806" s="29"/>
@@ -16428,7 +16428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="807" spans="1:11" ht="14.25" customHeight="1">
+    <row r="807" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="29"/>
       <c r="B807" s="29"/>
       <c r="C807" s="29"/>
@@ -16447,7 +16447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:11" ht="14.25" customHeight="1">
+    <row r="808" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="29"/>
       <c r="B808" s="29"/>
       <c r="C808" s="29"/>
@@ -16466,7 +16466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="809" spans="1:11" ht="14.25" customHeight="1">
+    <row r="809" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="29"/>
       <c r="B809" s="29"/>
       <c r="C809" s="29"/>
@@ -16485,7 +16485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:11" ht="14.25" customHeight="1">
+    <row r="810" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="29"/>
       <c r="B810" s="29"/>
       <c r="C810" s="29"/>
@@ -16504,7 +16504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="811" spans="1:11" ht="14.25" customHeight="1">
+    <row r="811" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="29"/>
       <c r="B811" s="29"/>
       <c r="C811" s="29"/>
@@ -16523,7 +16523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="812" spans="1:11" ht="14.25" customHeight="1">
+    <row r="812" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="29"/>
       <c r="B812" s="29"/>
       <c r="C812" s="29"/>
@@ -16542,7 +16542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="813" spans="1:11" ht="14.25" customHeight="1">
+    <row r="813" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="29"/>
       <c r="B813" s="29"/>
       <c r="C813" s="29"/>
@@ -16561,7 +16561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="814" spans="1:11" ht="14.25" customHeight="1">
+    <row r="814" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="29"/>
       <c r="B814" s="29"/>
       <c r="C814" s="29"/>
@@ -16580,7 +16580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="815" spans="1:11" ht="14.25" customHeight="1">
+    <row r="815" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="29"/>
       <c r="B815" s="29"/>
       <c r="C815" s="29"/>
@@ -16599,7 +16599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="816" spans="1:11" ht="14.25" customHeight="1">
+    <row r="816" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="29"/>
       <c r="B816" s="29"/>
       <c r="C816" s="29"/>
@@ -16618,7 +16618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="817" spans="1:11" ht="14.25" customHeight="1">
+    <row r="817" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="29"/>
       <c r="B817" s="29"/>
       <c r="C817" s="29"/>
@@ -16637,7 +16637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="818" spans="1:11" ht="14.25" customHeight="1">
+    <row r="818" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="29"/>
       <c r="B818" s="29"/>
       <c r="C818" s="29"/>
@@ -16656,7 +16656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:11" ht="14.25" customHeight="1">
+    <row r="819" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="29"/>
       <c r="B819" s="29"/>
       <c r="C819" s="29"/>
@@ -16675,7 +16675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="820" spans="1:11" ht="14.25" customHeight="1">
+    <row r="820" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="29"/>
       <c r="B820" s="29"/>
       <c r="C820" s="29"/>
@@ -16694,7 +16694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="821" spans="1:11" ht="14.25" customHeight="1">
+    <row r="821" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="29"/>
       <c r="B821" s="29"/>
       <c r="C821" s="29"/>
@@ -16713,7 +16713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="822" spans="1:11" ht="14.25" customHeight="1">
+    <row r="822" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="29"/>
       <c r="B822" s="29"/>
       <c r="C822" s="29"/>
@@ -16732,7 +16732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:11" ht="14.25" customHeight="1">
+    <row r="823" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="29"/>
       <c r="B823" s="29"/>
       <c r="C823" s="29"/>
@@ -16751,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="824" spans="1:11" ht="14.25" customHeight="1">
+    <row r="824" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="29"/>
       <c r="B824" s="29"/>
       <c r="C824" s="29"/>
@@ -16770,7 +16770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="825" spans="1:11" ht="14.25" customHeight="1">
+    <row r="825" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="29"/>
       <c r="B825" s="29"/>
       <c r="C825" s="29"/>
@@ -16789,7 +16789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="826" spans="1:11" ht="14.25" customHeight="1">
+    <row r="826" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="29"/>
       <c r="B826" s="29"/>
       <c r="C826" s="29"/>
@@ -16808,7 +16808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="827" spans="1:11" ht="14.25" customHeight="1">
+    <row r="827" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="29"/>
       <c r="B827" s="29"/>
       <c r="C827" s="29"/>
@@ -16827,7 +16827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="828" spans="1:11" ht="14.25" customHeight="1">
+    <row r="828" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="29"/>
       <c r="B828" s="29"/>
       <c r="C828" s="29"/>
@@ -16846,7 +16846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="829" spans="1:11" ht="14.25" customHeight="1">
+    <row r="829" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="29"/>
       <c r="B829" s="29"/>
       <c r="C829" s="29"/>
@@ -16865,7 +16865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="830" spans="1:11" ht="14.25" customHeight="1">
+    <row r="830" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="29"/>
       <c r="B830" s="29"/>
       <c r="C830" s="29"/>
@@ -16884,7 +16884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:11" ht="14.25" customHeight="1">
+    <row r="831" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="29"/>
       <c r="B831" s="29"/>
       <c r="C831" s="29"/>
@@ -16903,7 +16903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="832" spans="1:11" ht="14.25" customHeight="1">
+    <row r="832" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="29"/>
       <c r="B832" s="29"/>
       <c r="C832" s="29"/>
@@ -16922,7 +16922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="833" spans="1:11" ht="14.25" customHeight="1">
+    <row r="833" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="29"/>
       <c r="B833" s="29"/>
       <c r="C833" s="29"/>
@@ -16941,7 +16941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="834" spans="1:11" ht="14.25" customHeight="1">
+    <row r="834" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="29"/>
       <c r="B834" s="29"/>
       <c r="C834" s="29"/>
@@ -16960,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="835" spans="1:11" ht="14.25" customHeight="1">
+    <row r="835" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="29"/>
       <c r="B835" s="29"/>
       <c r="C835" s="29"/>
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="836" spans="1:11" ht="14.25" customHeight="1">
+    <row r="836" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="29"/>
       <c r="B836" s="29"/>
       <c r="C836" s="29"/>
@@ -16998,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="837" spans="1:11" ht="14.25" customHeight="1">
+    <row r="837" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="29"/>
       <c r="B837" s="29"/>
       <c r="C837" s="29"/>
@@ -17017,7 +17017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:11" ht="14.25" customHeight="1">
+    <row r="838" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="29"/>
       <c r="B838" s="29"/>
       <c r="C838" s="29"/>
@@ -17036,7 +17036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="839" spans="1:11" ht="14.25" customHeight="1">
+    <row r="839" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="29"/>
       <c r="B839" s="29"/>
       <c r="C839" s="29"/>
@@ -17055,7 +17055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="840" spans="1:11" ht="14.25" customHeight="1">
+    <row r="840" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="29"/>
       <c r="B840" s="29"/>
       <c r="C840" s="29"/>
@@ -17074,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="841" spans="1:11" ht="14.25" customHeight="1">
+    <row r="841" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="29"/>
       <c r="B841" s="29"/>
       <c r="C841" s="29"/>
@@ -17093,7 +17093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="842" spans="1:11" ht="14.25" customHeight="1">
+    <row r="842" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="29"/>
       <c r="B842" s="29"/>
       <c r="C842" s="29"/>
@@ -17112,7 +17112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:11" ht="14.25" customHeight="1">
+    <row r="843" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="29"/>
       <c r="B843" s="29"/>
       <c r="C843" s="29"/>
@@ -17131,7 +17131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="844" spans="1:11" ht="14.25" customHeight="1">
+    <row r="844" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="29"/>
       <c r="B844" s="29"/>
       <c r="C844" s="29"/>
@@ -17150,7 +17150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="845" spans="1:11" ht="14.25" customHeight="1">
+    <row r="845" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="29"/>
       <c r="B845" s="29"/>
       <c r="C845" s="29"/>
@@ -17169,7 +17169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="846" spans="1:11" ht="14.25" customHeight="1">
+    <row r="846" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="29"/>
       <c r="B846" s="29"/>
       <c r="C846" s="29"/>
@@ -17188,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="847" spans="1:11" ht="14.25" customHeight="1">
+    <row r="847" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="29"/>
       <c r="B847" s="29"/>
       <c r="C847" s="29"/>
@@ -17207,7 +17207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="848" spans="1:11" ht="14.25" customHeight="1">
+    <row r="848" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="29"/>
       <c r="B848" s="29"/>
       <c r="C848" s="29"/>
@@ -17226,7 +17226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="849" spans="1:11" ht="14.25" customHeight="1">
+    <row r="849" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="29"/>
       <c r="B849" s="29"/>
       <c r="C849" s="29"/>
@@ -17245,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="850" spans="1:11" ht="14.25" customHeight="1">
+    <row r="850" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="29"/>
       <c r="B850" s="29"/>
       <c r="C850" s="29"/>
@@ -17264,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:11" ht="14.25" customHeight="1">
+    <row r="851" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="29"/>
       <c r="B851" s="29"/>
       <c r="C851" s="29"/>
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="852" spans="1:11" ht="14.25" customHeight="1">
+    <row r="852" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="29"/>
       <c r="B852" s="29"/>
       <c r="C852" s="29"/>
@@ -17302,7 +17302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="853" spans="1:11" ht="14.25" customHeight="1">
+    <row r="853" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="29"/>
       <c r="B853" s="29"/>
       <c r="C853" s="29"/>
@@ -17321,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="854" spans="1:11" ht="14.25" customHeight="1">
+    <row r="854" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="29"/>
       <c r="B854" s="29"/>
       <c r="C854" s="29"/>
@@ -17340,7 +17340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="855" spans="1:11" ht="14.25" customHeight="1">
+    <row r="855" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="29"/>
       <c r="B855" s="29"/>
       <c r="C855" s="29"/>
@@ -17359,7 +17359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="856" spans="1:11" ht="14.25" customHeight="1">
+    <row r="856" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="29"/>
       <c r="B856" s="29"/>
       <c r="C856" s="29"/>
@@ -17378,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="857" spans="1:11" ht="14.25" customHeight="1">
+    <row r="857" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="29"/>
       <c r="B857" s="29"/>
       <c r="C857" s="29"/>
@@ -17397,7 +17397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="858" spans="1:11" ht="14.25" customHeight="1">
+    <row r="858" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="29"/>
       <c r="B858" s="29"/>
       <c r="C858" s="29"/>
@@ -17416,7 +17416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="859" spans="1:11" ht="14.25" customHeight="1">
+    <row r="859" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="29"/>
       <c r="B859" s="29"/>
       <c r="C859" s="29"/>
@@ -17435,7 +17435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="860" spans="1:11" ht="14.25" customHeight="1">
+    <row r="860" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="29"/>
       <c r="B860" s="29"/>
       <c r="C860" s="29"/>
@@ -17454,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="861" spans="1:11" ht="14.25" customHeight="1">
+    <row r="861" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="29"/>
       <c r="B861" s="29"/>
       <c r="C861" s="29"/>
@@ -17473,7 +17473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="862" spans="1:11" ht="14.25" customHeight="1">
+    <row r="862" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="29"/>
       <c r="B862" s="29"/>
       <c r="C862" s="29"/>
@@ -17492,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="863" spans="1:11" ht="14.25" customHeight="1">
+    <row r="863" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="29"/>
       <c r="B863" s="29"/>
       <c r="C863" s="29"/>
@@ -17511,7 +17511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="864" spans="1:11" ht="14.25" customHeight="1">
+    <row r="864" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="29"/>
       <c r="B864" s="29"/>
       <c r="C864" s="29"/>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="865" spans="1:11" ht="14.25" customHeight="1">
+    <row r="865" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="29"/>
       <c r="B865" s="29"/>
       <c r="C865" s="29"/>
@@ -17549,7 +17549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="866" spans="1:11" ht="14.25" customHeight="1">
+    <row r="866" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="29"/>
       <c r="B866" s="29"/>
       <c r="C866" s="29"/>
@@ -17568,7 +17568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="867" spans="1:11" ht="14.25" customHeight="1">
+    <row r="867" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="29"/>
       <c r="B867" s="29"/>
       <c r="C867" s="29"/>
@@ -17587,7 +17587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="868" spans="1:11" ht="14.25" customHeight="1">
+    <row r="868" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="29"/>
       <c r="B868" s="29"/>
       <c r="C868" s="29"/>
@@ -17606,7 +17606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="869" spans="1:11" ht="14.25" customHeight="1">
+    <row r="869" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="29"/>
       <c r="B869" s="29"/>
       <c r="C869" s="29"/>
@@ -17625,7 +17625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="870" spans="1:11" ht="14.25" customHeight="1">
+    <row r="870" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="29"/>
       <c r="B870" s="29"/>
       <c r="C870" s="29"/>
@@ -17644,7 +17644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="871" spans="1:11" ht="14.25" customHeight="1">
+    <row r="871" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="29"/>
       <c r="B871" s="29"/>
       <c r="C871" s="29"/>
@@ -17663,7 +17663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="872" spans="1:11" ht="14.25" customHeight="1">
+    <row r="872" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="29"/>
       <c r="B872" s="29"/>
       <c r="C872" s="29"/>
@@ -17682,7 +17682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="873" spans="1:11" ht="14.25" customHeight="1">
+    <row r="873" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="29"/>
       <c r="B873" s="29"/>
       <c r="C873" s="29"/>
@@ -17701,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="874" spans="1:11" ht="14.25" customHeight="1">
+    <row r="874" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="29"/>
       <c r="B874" s="29"/>
       <c r="C874" s="29"/>
@@ -17720,7 +17720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="875" spans="1:11" ht="14.25" customHeight="1">
+    <row r="875" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="29"/>
       <c r="B875" s="29"/>
       <c r="C875" s="29"/>
@@ -17739,7 +17739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="876" spans="1:11" ht="14.25" customHeight="1">
+    <row r="876" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="29"/>
       <c r="B876" s="29"/>
       <c r="C876" s="29"/>
@@ -17758,7 +17758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="877" spans="1:11" ht="14.25" customHeight="1">
+    <row r="877" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="29"/>
       <c r="B877" s="29"/>
       <c r="C877" s="29"/>
@@ -17777,7 +17777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="878" spans="1:11" ht="14.25" customHeight="1">
+    <row r="878" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="29"/>
       <c r="B878" s="29"/>
       <c r="C878" s="29"/>
@@ -17796,7 +17796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="879" spans="1:11" ht="14.25" customHeight="1">
+    <row r="879" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="29"/>
       <c r="B879" s="29"/>
       <c r="C879" s="29"/>
@@ -17815,7 +17815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="880" spans="1:11" ht="14.25" customHeight="1">
+    <row r="880" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="29"/>
       <c r="B880" s="29"/>
       <c r="C880" s="29"/>
@@ -17834,7 +17834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="881" spans="1:11" ht="14.25" customHeight="1">
+    <row r="881" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="29"/>
       <c r="B881" s="29"/>
       <c r="C881" s="29"/>
@@ -17853,7 +17853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="882" spans="1:11" ht="14.25" customHeight="1">
+    <row r="882" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="29"/>
       <c r="B882" s="29"/>
       <c r="C882" s="29"/>
@@ -17872,7 +17872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="883" spans="1:11" ht="14.25" customHeight="1">
+    <row r="883" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="29"/>
       <c r="B883" s="29"/>
       <c r="C883" s="29"/>
@@ -17891,7 +17891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="884" spans="1:11" ht="14.25" customHeight="1">
+    <row r="884" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="29"/>
       <c r="B884" s="29"/>
       <c r="C884" s="29"/>
@@ -17910,7 +17910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="885" spans="1:11" ht="14.25" customHeight="1">
+    <row r="885" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="29"/>
       <c r="B885" s="29"/>
       <c r="C885" s="29"/>
@@ -17929,7 +17929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="886" spans="1:11" ht="14.25" customHeight="1">
+    <row r="886" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="29"/>
       <c r="B886" s="29"/>
       <c r="C886" s="29"/>
@@ -17948,7 +17948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="887" spans="1:11" ht="14.25" customHeight="1">
+    <row r="887" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="29"/>
       <c r="B887" s="29"/>
       <c r="C887" s="29"/>
@@ -17967,7 +17967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="888" spans="1:11" ht="14.25" customHeight="1">
+    <row r="888" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="29"/>
       <c r="B888" s="29"/>
       <c r="C888" s="29"/>
@@ -17986,7 +17986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="889" spans="1:11" ht="14.25" customHeight="1">
+    <row r="889" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="29"/>
       <c r="B889" s="29"/>
       <c r="C889" s="29"/>
@@ -18005,7 +18005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="890" spans="1:11" ht="14.25" customHeight="1">
+    <row r="890" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="29"/>
       <c r="B890" s="29"/>
       <c r="C890" s="29"/>
@@ -18024,7 +18024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="891" spans="1:11" ht="14.25" customHeight="1">
+    <row r="891" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="29"/>
       <c r="B891" s="29"/>
       <c r="C891" s="29"/>
@@ -18043,7 +18043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="892" spans="1:11" ht="14.25" customHeight="1">
+    <row r="892" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="29"/>
       <c r="B892" s="29"/>
       <c r="C892" s="29"/>
@@ -18062,7 +18062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="893" spans="1:11" ht="14.25" customHeight="1">
+    <row r="893" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="29"/>
       <c r="B893" s="29"/>
       <c r="C893" s="29"/>
@@ -18081,7 +18081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="894" spans="1:11" ht="14.25" customHeight="1">
+    <row r="894" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="29"/>
       <c r="B894" s="29"/>
       <c r="C894" s="29"/>
@@ -18100,7 +18100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="895" spans="1:11" ht="14.25" customHeight="1">
+    <row r="895" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="29"/>
       <c r="B895" s="29"/>
       <c r="C895" s="29"/>
@@ -18119,7 +18119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="896" spans="1:11" ht="14.25" customHeight="1">
+    <row r="896" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="29"/>
       <c r="B896" s="29"/>
       <c r="C896" s="29"/>
@@ -18138,7 +18138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="897" spans="1:11" ht="14.25" customHeight="1">
+    <row r="897" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="29"/>
       <c r="B897" s="29"/>
       <c r="C897" s="29"/>
@@ -18157,7 +18157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="898" spans="1:11" ht="14.25" customHeight="1">
+    <row r="898" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="29"/>
       <c r="B898" s="29"/>
       <c r="C898" s="29"/>
@@ -18176,7 +18176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="899" spans="1:11" ht="14.25" customHeight="1">
+    <row r="899" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="29"/>
       <c r="B899" s="29"/>
       <c r="C899" s="29"/>
@@ -18195,7 +18195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="900" spans="1:11" ht="14.25" customHeight="1">
+    <row r="900" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="29"/>
       <c r="B900" s="29"/>
       <c r="C900" s="29"/>
@@ -18214,7 +18214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="901" spans="1:11" ht="14.25" customHeight="1">
+    <row r="901" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="29"/>
       <c r="B901" s="29"/>
       <c r="C901" s="29"/>
@@ -18233,7 +18233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="902" spans="1:11" ht="14.25" customHeight="1">
+    <row r="902" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="29"/>
       <c r="B902" s="29"/>
       <c r="C902" s="29"/>
@@ -18252,7 +18252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="903" spans="1:11" ht="14.25" customHeight="1">
+    <row r="903" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="29"/>
       <c r="B903" s="29"/>
       <c r="C903" s="29"/>
@@ -18271,7 +18271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="904" spans="1:11" ht="14.25" customHeight="1">
+    <row r="904" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="29"/>
       <c r="B904" s="29"/>
       <c r="C904" s="29"/>
@@ -18290,7 +18290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="905" spans="1:11" ht="14.25" customHeight="1">
+    <row r="905" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="29"/>
       <c r="B905" s="29"/>
       <c r="C905" s="29"/>
@@ -18309,7 +18309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="906" spans="1:11" ht="14.25" customHeight="1">
+    <row r="906" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="29"/>
       <c r="B906" s="29"/>
       <c r="C906" s="29"/>
@@ -18328,7 +18328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="907" spans="1:11" ht="14.25" customHeight="1">
+    <row r="907" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="29"/>
       <c r="B907" s="29"/>
       <c r="C907" s="29"/>
@@ -18347,7 +18347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="908" spans="1:11" ht="14.25" customHeight="1">
+    <row r="908" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="29"/>
       <c r="B908" s="29"/>
       <c r="C908" s="29"/>
@@ -18366,7 +18366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="909" spans="1:11" ht="14.25" customHeight="1">
+    <row r="909" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="29"/>
       <c r="B909" s="29"/>
       <c r="C909" s="29"/>
@@ -18385,7 +18385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="910" spans="1:11" ht="14.25" customHeight="1">
+    <row r="910" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="29"/>
       <c r="B910" s="29"/>
       <c r="C910" s="29"/>
@@ -18404,7 +18404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="911" spans="1:11" ht="14.25" customHeight="1">
+    <row r="911" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="29"/>
       <c r="B911" s="29"/>
       <c r="C911" s="29"/>
@@ -18423,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="912" spans="1:11" ht="14.25" customHeight="1">
+    <row r="912" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="29"/>
       <c r="B912" s="29"/>
       <c r="C912" s="29"/>
@@ -18442,7 +18442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="913" spans="1:11" ht="14.25" customHeight="1">
+    <row r="913" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="29"/>
       <c r="B913" s="29"/>
       <c r="C913" s="29"/>
@@ -18461,7 +18461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="914" spans="1:11" ht="14.25" customHeight="1">
+    <row r="914" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="29"/>
       <c r="B914" s="29"/>
       <c r="C914" s="29"/>
@@ -18480,7 +18480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="915" spans="1:11" ht="14.25" customHeight="1">
+    <row r="915" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="29"/>
       <c r="B915" s="29"/>
       <c r="C915" s="29"/>
@@ -18499,7 +18499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="916" spans="1:11" ht="14.25" customHeight="1">
+    <row r="916" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="29"/>
       <c r="B916" s="29"/>
       <c r="C916" s="29"/>
@@ -18518,7 +18518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="917" spans="1:11" ht="14.25" customHeight="1">
+    <row r="917" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="29"/>
       <c r="B917" s="29"/>
       <c r="C917" s="29"/>
@@ -18537,7 +18537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="918" spans="1:11" ht="14.25" customHeight="1">
+    <row r="918" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="29"/>
       <c r="B918" s="29"/>
       <c r="C918" s="29"/>
@@ -18556,7 +18556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="919" spans="1:11" ht="14.25" customHeight="1">
+    <row r="919" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="29"/>
       <c r="B919" s="29"/>
       <c r="C919" s="29"/>
@@ -18575,7 +18575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="920" spans="1:11" ht="14.25" customHeight="1">
+    <row r="920" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="29"/>
       <c r="B920" s="29"/>
       <c r="C920" s="29"/>
@@ -18594,7 +18594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="921" spans="1:11" ht="14.25" customHeight="1">
+    <row r="921" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="29"/>
       <c r="B921" s="29"/>
       <c r="C921" s="29"/>
@@ -18613,7 +18613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="922" spans="1:11" ht="14.25" customHeight="1">
+    <row r="922" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="29"/>
       <c r="B922" s="29"/>
       <c r="C922" s="29"/>
@@ -18632,7 +18632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="923" spans="1:11" ht="14.25" customHeight="1">
+    <row r="923" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="29"/>
       <c r="B923" s="29"/>
       <c r="C923" s="29"/>
@@ -18651,7 +18651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="924" spans="1:11" ht="14.25" customHeight="1">
+    <row r="924" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="29"/>
       <c r="B924" s="29"/>
       <c r="C924" s="29"/>
@@ -18670,7 +18670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="925" spans="1:11" ht="14.25" customHeight="1">
+    <row r="925" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="29"/>
       <c r="B925" s="29"/>
       <c r="C925" s="29"/>
@@ -18689,7 +18689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="926" spans="1:11" ht="14.25" customHeight="1">
+    <row r="926" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="29"/>
       <c r="B926" s="29"/>
       <c r="C926" s="29"/>
@@ -18708,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="927" spans="1:11" ht="14.25" customHeight="1">
+    <row r="927" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="29"/>
       <c r="B927" s="29"/>
       <c r="C927" s="29"/>
@@ -18727,7 +18727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="928" spans="1:11" ht="14.25" customHeight="1">
+    <row r="928" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="29"/>
       <c r="B928" s="29"/>
       <c r="C928" s="29"/>
@@ -18746,7 +18746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="929" spans="1:11" ht="14.25" customHeight="1">
+    <row r="929" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="29"/>
       <c r="B929" s="29"/>
       <c r="C929" s="29"/>
@@ -18765,7 +18765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="930" spans="1:11" ht="14.25" customHeight="1">
+    <row r="930" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="29"/>
       <c r="B930" s="29"/>
       <c r="C930" s="29"/>
@@ -18784,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="931" spans="1:11" ht="14.25" customHeight="1">
+    <row r="931" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="29"/>
       <c r="B931" s="29"/>
       <c r="C931" s="29"/>
@@ -18803,7 +18803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="932" spans="1:11" ht="14.25" customHeight="1">
+    <row r="932" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="29"/>
       <c r="B932" s="29"/>
       <c r="C932" s="29"/>
@@ -18822,7 +18822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="933" spans="1:11" ht="14.25" customHeight="1">
+    <row r="933" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="29"/>
       <c r="B933" s="29"/>
       <c r="C933" s="29"/>
@@ -18841,7 +18841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="934" spans="1:11" ht="14.25" customHeight="1">
+    <row r="934" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="29"/>
       <c r="B934" s="29"/>
       <c r="C934" s="29"/>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="935" spans="1:11" ht="14.25" customHeight="1">
+    <row r="935" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="29"/>
       <c r="B935" s="29"/>
       <c r="C935" s="29"/>
@@ -18879,7 +18879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="936" spans="1:11" ht="14.25" customHeight="1">
+    <row r="936" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="29"/>
       <c r="B936" s="29"/>
       <c r="C936" s="29"/>
@@ -18898,7 +18898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="937" spans="1:11" ht="14.25" customHeight="1">
+    <row r="937" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="29"/>
       <c r="B937" s="29"/>
       <c r="C937" s="29"/>
@@ -18917,7 +18917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="938" spans="1:11" ht="14.25" customHeight="1">
+    <row r="938" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="29"/>
       <c r="B938" s="29"/>
       <c r="C938" s="29"/>
@@ -18936,7 +18936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="939" spans="1:11" ht="14.25" customHeight="1">
+    <row r="939" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="29"/>
       <c r="B939" s="29"/>
       <c r="C939" s="29"/>
@@ -18955,7 +18955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="940" spans="1:11" ht="14.25" customHeight="1">
+    <row r="940" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="29"/>
       <c r="B940" s="29"/>
       <c r="C940" s="29"/>
@@ -18974,7 +18974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="941" spans="1:11" ht="14.25" customHeight="1">
+    <row r="941" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="29"/>
       <c r="B941" s="29"/>
       <c r="C941" s="29"/>
@@ -18993,7 +18993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="942" spans="1:11" ht="14.25" customHeight="1">
+    <row r="942" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="29"/>
       <c r="B942" s="29"/>
       <c r="C942" s="29"/>
@@ -19012,7 +19012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="943" spans="1:11" ht="14.25" customHeight="1">
+    <row r="943" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="29"/>
       <c r="B943" s="29"/>
       <c r="C943" s="29"/>
@@ -19031,7 +19031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="944" spans="1:11" ht="14.25" customHeight="1">
+    <row r="944" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="29"/>
       <c r="B944" s="29"/>
       <c r="C944" s="29"/>
@@ -19050,7 +19050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="945" spans="1:11" ht="14.25" customHeight="1">
+    <row r="945" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="29"/>
       <c r="B945" s="29"/>
       <c r="C945" s="29"/>
@@ -19069,7 +19069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="946" spans="1:11" ht="14.25" customHeight="1">
+    <row r="946" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="29"/>
       <c r="B946" s="29"/>
       <c r="C946" s="29"/>
@@ -19088,7 +19088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="947" spans="1:11" ht="14.25" customHeight="1">
+    <row r="947" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="29"/>
       <c r="B947" s="29"/>
       <c r="C947" s="29"/>
@@ -19107,7 +19107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="948" spans="1:11" ht="14.25" customHeight="1">
+    <row r="948" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="29"/>
       <c r="B948" s="29"/>
       <c r="C948" s="29"/>
@@ -19126,7 +19126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="949" spans="1:11" ht="14.25" customHeight="1">
+    <row r="949" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="29"/>
       <c r="B949" s="29"/>
       <c r="C949" s="29"/>
@@ -19145,7 +19145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="950" spans="1:11" ht="14.25" customHeight="1">
+    <row r="950" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="29"/>
       <c r="B950" s="29"/>
       <c r="C950" s="29"/>
@@ -19164,7 +19164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="951" spans="1:11" ht="14.25" customHeight="1">
+    <row r="951" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="29"/>
       <c r="B951" s="29"/>
       <c r="C951" s="29"/>
@@ -19183,7 +19183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="952" spans="1:11" ht="14.25" customHeight="1">
+    <row r="952" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="29"/>
       <c r="B952" s="29"/>
       <c r="C952" s="29"/>
@@ -19202,7 +19202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="953" spans="1:11" ht="14.25" customHeight="1">
+    <row r="953" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="29"/>
       <c r="B953" s="29"/>
       <c r="C953" s="29"/>
@@ -19221,7 +19221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="954" spans="1:11" ht="14.25" customHeight="1">
+    <row r="954" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="29"/>
       <c r="B954" s="29"/>
       <c r="C954" s="29"/>
@@ -19240,7 +19240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="955" spans="1:11" ht="14.25" customHeight="1">
+    <row r="955" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="29"/>
       <c r="B955" s="29"/>
       <c r="C955" s="29"/>
@@ -19259,7 +19259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="956" spans="1:11" ht="14.25" customHeight="1">
+    <row r="956" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="29"/>
       <c r="B956" s="29"/>
       <c r="C956" s="29"/>
@@ -19278,7 +19278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="957" spans="1:11" ht="14.25" customHeight="1">
+    <row r="957" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="29"/>
       <c r="B957" s="29"/>
       <c r="C957" s="29"/>
@@ -19297,7 +19297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="958" spans="1:11" ht="14.25" customHeight="1">
+    <row r="958" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="29"/>
       <c r="B958" s="29"/>
       <c r="C958" s="29"/>
@@ -19316,7 +19316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="959" spans="1:11" ht="14.25" customHeight="1">
+    <row r="959" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="29"/>
       <c r="B959" s="29"/>
       <c r="C959" s="29"/>
@@ -19335,7 +19335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="960" spans="1:11" ht="14.25" customHeight="1">
+    <row r="960" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="29"/>
       <c r="B960" s="29"/>
       <c r="C960" s="29"/>
@@ -19354,7 +19354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="961" spans="1:11" ht="14.25" customHeight="1">
+    <row r="961" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="29"/>
       <c r="B961" s="29"/>
       <c r="C961" s="29"/>
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="962" spans="1:11" ht="14.25" customHeight="1">
+    <row r="962" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="29"/>
       <c r="B962" s="29"/>
       <c r="C962" s="29"/>
@@ -19392,7 +19392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="963" spans="1:11" ht="14.25" customHeight="1">
+    <row r="963" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="29"/>
       <c r="B963" s="29"/>
       <c r="C963" s="29"/>
@@ -19411,7 +19411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="964" spans="1:11" ht="14.25" customHeight="1">
+    <row r="964" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="29"/>
       <c r="B964" s="29"/>
       <c r="C964" s="29"/>
@@ -19430,7 +19430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="965" spans="1:11" ht="14.25" customHeight="1">
+    <row r="965" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="29"/>
       <c r="B965" s="29"/>
       <c r="C965" s="29"/>
@@ -19449,7 +19449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="966" spans="1:11" ht="14.25" customHeight="1">
+    <row r="966" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="29"/>
       <c r="B966" s="29"/>
       <c r="C966" s="29"/>
@@ -19468,7 +19468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="967" spans="1:11" ht="14.25" customHeight="1">
+    <row r="967" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="29"/>
       <c r="B967" s="29"/>
       <c r="C967" s="29"/>
@@ -19487,7 +19487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="968" spans="1:11" ht="14.25" customHeight="1">
+    <row r="968" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="29"/>
       <c r="B968" s="29"/>
       <c r="C968" s="29"/>
@@ -19506,7 +19506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="969" spans="1:11" ht="14.25" customHeight="1">
+    <row r="969" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="29"/>
       <c r="B969" s="29"/>
       <c r="C969" s="29"/>
@@ -19525,7 +19525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="970" spans="1:11" ht="14.25" customHeight="1">
+    <row r="970" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="29"/>
       <c r="B970" s="29"/>
       <c r="C970" s="29"/>
@@ -19544,7 +19544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="971" spans="1:11" ht="14.25" customHeight="1">
+    <row r="971" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="29"/>
       <c r="B971" s="29"/>
       <c r="C971" s="29"/>
@@ -19563,7 +19563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="972" spans="1:11" ht="14.25" customHeight="1">
+    <row r="972" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="29"/>
       <c r="B972" s="29"/>
       <c r="C972" s="29"/>
@@ -19582,7 +19582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="973" spans="1:11" ht="14.25" customHeight="1">
+    <row r="973" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="29"/>
       <c r="B973" s="29"/>
       <c r="C973" s="29"/>
@@ -19601,7 +19601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="974" spans="1:11" ht="14.25" customHeight="1">
+    <row r="974" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="29"/>
       <c r="B974" s="29"/>
       <c r="C974" s="29"/>
@@ -19620,7 +19620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="975" spans="1:11" ht="14.25" customHeight="1">
+    <row r="975" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="29"/>
       <c r="B975" s="29"/>
       <c r="C975" s="29"/>
@@ -19639,7 +19639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="976" spans="1:11" ht="14.25" customHeight="1">
+    <row r="976" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="29"/>
       <c r="B976" s="29"/>
       <c r="C976" s="29"/>
@@ -19658,7 +19658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="977" spans="1:11" ht="14.25" customHeight="1">
+    <row r="977" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="29"/>
       <c r="B977" s="29"/>
       <c r="C977" s="29"/>
@@ -19677,7 +19677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="978" spans="1:11" ht="14.25" customHeight="1">
+    <row r="978" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="29"/>
       <c r="B978" s="29"/>
       <c r="C978" s="29"/>
@@ -19696,7 +19696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="979" spans="1:11" ht="14.25" customHeight="1">
+    <row r="979" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="29"/>
       <c r="B979" s="29"/>
       <c r="C979" s="29"/>
@@ -19715,7 +19715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="980" spans="1:11" ht="14.25" customHeight="1">
+    <row r="980" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="29"/>
       <c r="B980" s="29"/>
       <c r="C980" s="29"/>
@@ -19734,7 +19734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="981" spans="1:11" ht="14.25" customHeight="1">
+    <row r="981" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="29"/>
       <c r="B981" s="29"/>
       <c r="C981" s="29"/>
@@ -19753,7 +19753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="982" spans="1:11" ht="14.25" customHeight="1">
+    <row r="982" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="29"/>
       <c r="B982" s="29"/>
       <c r="C982" s="29"/>
@@ -19772,7 +19772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="983" spans="1:11" ht="14.25" customHeight="1">
+    <row r="983" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="29"/>
       <c r="B983" s="29"/>
       <c r="C983" s="29"/>
@@ -19791,7 +19791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="984" spans="1:11" ht="14.25" customHeight="1">
+    <row r="984" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="29"/>
       <c r="B984" s="29"/>
       <c r="C984" s="29"/>
@@ -19810,7 +19810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="985" spans="1:11" ht="14.25" customHeight="1">
+    <row r="985" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="29"/>
       <c r="B985" s="29"/>
       <c r="C985" s="29"/>
@@ -19829,7 +19829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="986" spans="1:11" ht="14.25" customHeight="1">
+    <row r="986" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="29"/>
       <c r="B986" s="29"/>
       <c r="C986" s="29"/>
@@ -19848,7 +19848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="987" spans="1:11" ht="14.25" customHeight="1">
+    <row r="987" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="29"/>
       <c r="B987" s="29"/>
       <c r="C987" s="29"/>
@@ -19867,7 +19867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="988" spans="1:11" ht="14.25" customHeight="1">
+    <row r="988" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="29"/>
       <c r="B988" s="29"/>
       <c r="C988" s="29"/>
@@ -19886,7 +19886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="989" spans="1:11" ht="14.25" customHeight="1">
+    <row r="989" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="29"/>
       <c r="B989" s="29"/>
       <c r="C989" s="29"/>
@@ -19905,7 +19905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="990" spans="1:11" ht="14.25" customHeight="1">
+    <row r="990" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="29"/>
       <c r="B990" s="29"/>
       <c r="C990" s="29"/>
@@ -19924,7 +19924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="991" spans="1:11" ht="14.25" customHeight="1">
+    <row r="991" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="29"/>
       <c r="B991" s="29"/>
       <c r="C991" s="29"/>
@@ -19943,7 +19943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="992" spans="1:11" ht="14.25" customHeight="1">
+    <row r="992" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="29"/>
       <c r="B992" s="29"/>
       <c r="C992" s="29"/>
@@ -19962,7 +19962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="993" spans="1:11" ht="14.25" customHeight="1">
+    <row r="993" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="29"/>
       <c r="B993" s="29"/>
       <c r="C993" s="29"/>
@@ -19981,7 +19981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="994" spans="1:11" ht="14.25" customHeight="1">
+    <row r="994" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="29"/>
       <c r="B994" s="29"/>
       <c r="C994" s="29"/>
@@ -20000,7 +20000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="995" spans="1:11" ht="14.25" customHeight="1">
+    <row r="995" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="29"/>
       <c r="B995" s="29"/>
       <c r="C995" s="29"/>
@@ -20019,7 +20019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="996" spans="1:11" ht="14.25" customHeight="1">
+    <row r="996" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="29"/>
       <c r="B996" s="29"/>
       <c r="C996" s="29"/>

--- a/Hardware/Project BOM.xlsx
+++ b/Hardware/Project BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\MSP-Debugger\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94331084-5BEF-4942-885C-4D2FB81F1088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7733697-C3D1-4FA2-8C37-8D68A21BC011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19215" yWindow="15" windowWidth="19185" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="450" windowWidth="19185" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -833,7 +833,7 @@
   <dimension ref="A1:K996"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Hardware/Project BOM.xlsx
+++ b/Hardware/Project BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\MSP-Debugger\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7733697-C3D1-4FA2-8C37-8D68A21BC011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F8E0E9-97CE-4427-A83B-5E357DF296AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="450" windowWidth="19185" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17535" yWindow="0" windowWidth="20865" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Partner 1 Name: Jaden Baptista</t>
   </si>
@@ -323,6 +323,54 @@
   </si>
   <si>
     <t>U4</t>
+  </si>
+  <si>
+    <t>TSW-102-07-G-T</t>
+  </si>
+  <si>
+    <t>TSW-102-07-G-T-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samtec-inc/TSW-102-07-G-T/7862063</t>
+  </si>
+  <si>
+    <t>J4, J5</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 6POS 2.54MM</t>
+  </si>
+  <si>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/6129/tsw-xxx-xx-xxx-x-xx-xxx-mkt.pdf</t>
+  </si>
+  <si>
+    <t>QPC02SXGN-RC</t>
+  </si>
+  <si>
+    <t>S9337-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/sullins-connector-solutions/QPC02SXGN-RC/2618262</t>
+  </si>
+  <si>
+    <t>CONN JUMPER SHORTING .100" GOLD</t>
+  </si>
+  <si>
+    <t>https://s3.amazonaws.com/catalogspreads-pdf/PAGE128-129%20.100%20JUMPER.pdf</t>
+  </si>
+  <si>
+    <t>AO4882</t>
+  </si>
+  <si>
+    <t>785-1317-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/alpha-omega-semiconductor-inc/AO4882/3060989</t>
+  </si>
+  <si>
+    <t>Mosfet Array 40V 8A 2W Surface Mount 8-SOIC</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/htmldatasheets/production/1034359/0/0/1/ao4882.pdf</t>
   </si>
 </sst>
 </file>
@@ -830,16 +878,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K996"/>
+  <dimension ref="A1:K998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
@@ -899,8 +947,8 @@
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="7">
-        <f>SUM(K5:K996)</f>
-        <v>43.593330000000002</v>
+        <f>SUM(K5:K998)</f>
+        <v>46.913330000000002</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1078,11 +1126,11 @@
         <v>1</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" ref="J8:J28" si="1">A8*I8</f>
+        <f t="shared" ref="J8:J30" si="1">A8*I8</f>
         <v>5</v>
       </c>
       <c r="K8" s="15">
-        <f t="shared" ref="K8:K258" si="2">J8*D8</f>
+        <f t="shared" ref="K8:K260" si="2">J8*D8</f>
         <v>1.1500000000000001</v>
       </c>
     </row>
@@ -1452,83 +1500,133 @@
         <v>1</v>
       </c>
       <c r="K18" s="7">
-        <f t="shared" ref="K18" si="3">J18*D18</f>
+        <f t="shared" ref="K18:K20" si="3">J18*D18</f>
         <v>2.2599999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="28"/>
+      <c r="A19" s="11">
+        <v>3</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="27">
+        <v>0.52</v>
+      </c>
+      <c r="E19" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="G19" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="I19" s="28">
+        <v>1</v>
+      </c>
       <c r="J19" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K19" s="7">
+        <f t="shared" si="3"/>
+        <v>1.56</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="28"/>
+      <c r="A20" s="11">
+        <v>2</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="27">
+        <v>0.73</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I20" s="28">
+        <v>1</v>
+      </c>
       <c r="J20" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="28">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="K20" s="7">
+        <f t="shared" si="3"/>
+        <v>1.46</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="A21" s="11">
+        <v>3</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="27">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>108</v>
+      </c>
       <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="28"/>
+      <c r="G21" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="28">
+        <v>1</v>
+      </c>
       <c r="J21" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K21" s="28">
-        <f>J21*D21</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.30000000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="29"/>
       <c r="C22" s="29"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="31"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
       <c r="F22" s="29"/>
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="28"/>
       <c r="J22" s="14">
-        <f>A22*I22</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="28">
-        <f>J22*D22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1536,8 +1634,8 @@
       <c r="A23" s="29"/>
       <c r="B23" s="29"/>
       <c r="C23" s="29"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="31"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
       <c r="F23" s="29"/>
       <c r="G23" s="29"/>
       <c r="H23" s="29"/>
@@ -1555,18 +1653,18 @@
       <c r="A24" s="29"/>
       <c r="B24" s="29"/>
       <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="29"/>
       <c r="G24" s="29"/>
       <c r="H24" s="29"/>
       <c r="I24" s="28"/>
       <c r="J24" s="14">
-        <f t="shared" si="1"/>
+        <f>A24*I24</f>
         <v>0</v>
       </c>
       <c r="K24" s="28">
-        <f t="shared" si="2"/>
+        <f>J24*D24</f>
         <v>0</v>
       </c>
     </row>
@@ -1574,8 +1672,8 @@
       <c r="A25" s="29"/>
       <c r="B25" s="29"/>
       <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="31"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
@@ -1585,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="K25" s="28">
-        <f t="shared" si="2"/>
+        <f>J25*D25</f>
         <v>0</v>
       </c>
     </row>
@@ -1593,8 +1691,8 @@
       <c r="A26" s="29"/>
       <c r="B26" s="29"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
@@ -1612,8 +1710,8 @@
       <c r="A27" s="29"/>
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="29"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
@@ -1631,8 +1729,8 @@
       <c r="A28" s="29"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="29"/>
       <c r="G28" s="29"/>
       <c r="H28" s="29"/>
@@ -1650,14 +1748,14 @@
       <c r="A29" s="29"/>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="D29" s="27"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29"/>
       <c r="H29" s="29"/>
       <c r="I29" s="28"/>
-      <c r="J29" s="28">
-        <f t="shared" ref="J29:J258" si="4">A29*I29</f>
+      <c r="J29" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="28">
@@ -1669,14 +1767,14 @@
       <c r="A30" s="29"/>
       <c r="B30" s="29"/>
       <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="D30" s="27"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
       <c r="G30" s="29"/>
       <c r="H30" s="29"/>
       <c r="I30" s="28"/>
-      <c r="J30" s="28">
-        <f t="shared" si="4"/>
+      <c r="J30" s="14">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="28">
@@ -1688,14 +1786,14 @@
       <c r="A31" s="29"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="D31" s="27"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
       <c r="G31" s="29"/>
       <c r="H31" s="29"/>
       <c r="I31" s="28"/>
       <c r="J31" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J31:J260" si="4">A31*I31</f>
         <v>0</v>
       </c>
       <c r="K31" s="28">
@@ -1707,7 +1805,7 @@
       <c r="A32" s="29"/>
       <c r="B32" s="29"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="D32" s="27"/>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
       <c r="G32" s="29"/>
@@ -1726,7 +1824,7 @@
       <c r="A33" s="29"/>
       <c r="B33" s="29"/>
       <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="D33" s="27"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
       <c r="G33" s="29"/>
@@ -6027,11 +6125,11 @@
       <c r="H259" s="29"/>
       <c r="I259" s="28"/>
       <c r="J259" s="28">
-        <f t="shared" ref="J259:J513" si="5">A259*I259</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K259" s="28">
-        <f t="shared" ref="K259:K513" si="6">J259*D259</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6046,11 +6144,11 @@
       <c r="H260" s="29"/>
       <c r="I260" s="28"/>
       <c r="J260" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K260" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -6065,11 +6163,11 @@
       <c r="H261" s="29"/>
       <c r="I261" s="28"/>
       <c r="J261" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J261:J515" si="5">A261*I261</f>
         <v>0</v>
       </c>
       <c r="K261" s="28">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="K261:K515" si="6">J261*D261</f>
         <v>0</v>
       </c>
     </row>
@@ -10872,11 +10970,11 @@
       <c r="H514" s="29"/>
       <c r="I514" s="28"/>
       <c r="J514" s="28">
-        <f t="shared" ref="J514:J768" si="7">A514*I514</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K514" s="28">
-        <f t="shared" ref="K514:K768" si="8">J514*D514</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10891,11 +10989,11 @@
       <c r="H515" s="29"/>
       <c r="I515" s="28"/>
       <c r="J515" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K515" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -10910,11 +11008,11 @@
       <c r="H516" s="29"/>
       <c r="I516" s="28"/>
       <c r="J516" s="28">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J516:J770" si="7">A516*I516</f>
         <v>0</v>
       </c>
       <c r="K516" s="28">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="K516:K770" si="8">J516*D516</f>
         <v>0</v>
       </c>
     </row>
@@ -15717,11 +15815,11 @@
       <c r="H769" s="29"/>
       <c r="I769" s="28"/>
       <c r="J769" s="28">
-        <f t="shared" ref="J769:J996" si="9">A769*I769</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K769" s="28">
-        <f t="shared" ref="K769:K996" si="10">J769*D769</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15736,11 +15834,11 @@
       <c r="H770" s="29"/>
       <c r="I770" s="28"/>
       <c r="J770" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K770" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -15755,11 +15853,11 @@
       <c r="H771" s="29"/>
       <c r="I771" s="28"/>
       <c r="J771" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J771:J998" si="9">A771*I771</f>
         <v>0</v>
       </c>
       <c r="K771" s="28">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="K771:K998" si="10">J771*D771</f>
         <v>0</v>
       </c>
     </row>
@@ -20034,6 +20132,44 @@
         <v>0</v>
       </c>
       <c r="K996" s="28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A997" s="29"/>
+      <c r="B997" s="29"/>
+      <c r="C997" s="29"/>
+      <c r="D997" s="29"/>
+      <c r="E997" s="29"/>
+      <c r="F997" s="29"/>
+      <c r="G997" s="29"/>
+      <c r="H997" s="29"/>
+      <c r="I997" s="28"/>
+      <c r="J997" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K997" s="28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A998" s="29"/>
+      <c r="B998" s="29"/>
+      <c r="C998" s="29"/>
+      <c r="D998" s="29"/>
+      <c r="E998" s="29"/>
+      <c r="F998" s="29"/>
+      <c r="G998" s="29"/>
+      <c r="H998" s="29"/>
+      <c r="I998" s="28"/>
+      <c r="J998" s="28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K998" s="28">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>

--- a/Hardware/Project BOM.xlsx
+++ b/Hardware/Project BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bapti\Documents\MSP-Debugger\Hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12F8E0E9-97CE-4427-A83B-5E357DF296AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D070384-36B9-48E0-A2E4-B1D847214965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17535" yWindow="0" windowWidth="20865" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="125">
   <si>
     <t>Partner 1 Name: Jaden Baptista</t>
   </si>
@@ -371,6 +371,33 @@
   </si>
   <si>
     <t>https://www.digikey.com/htmldatasheets/production/1034359/0/0/1/ao4882.pdf</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 18POS 2.54MM</t>
+  </si>
+  <si>
+    <t>TD-109-T-A</t>
+  </si>
+  <si>
+    <t>SAM1114-09-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samtec-inc/TD-109-T-A/1105549</t>
+  </si>
+  <si>
+    <t>https://suddendocs.samtec.com/catalog_english/td.pdf</t>
+  </si>
+  <si>
+    <t>TS-110-T-A</t>
+  </si>
+  <si>
+    <t>SAM1112-10-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/samtec-inc/TS-110-T-A/1105484</t>
+  </si>
+  <si>
+    <t>CONN HEADER VERT 10POS 2.54MM</t>
   </si>
 </sst>
 </file>
@@ -881,7 +908,7 @@
   <dimension ref="A1:K998"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -948,7 +975,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="7">
         <f>SUM(K5:K998)</f>
-        <v>46.913330000000002</v>
+        <v>59.543329999999997</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1025,7 +1052,7 @@
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>22</v>
@@ -1053,11 +1080,11 @@
       </c>
       <c r="J6" s="14">
         <f>A6*I6</f>
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K6" s="7">
         <f>J6*D6</f>
-        <v>0.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1099,7 +1126,7 @@
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>17</v>
@@ -1127,11 +1154,11 @@
       </c>
       <c r="J8" s="14">
         <f t="shared" ref="J8:J30" si="1">A8*I8</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K8" s="15">
         <f t="shared" ref="K8:K260" si="2">J8*D8</f>
-        <v>1.1500000000000001</v>
+        <v>1.3800000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1506,7 +1533,7 @@
     </row>
     <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>111</v>
@@ -1532,11 +1559,11 @@
       </c>
       <c r="J19" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="3"/>
-        <v>1.56</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1589,7 +1616,7 @@
       <c r="D21" s="27">
         <v>0.1</v>
       </c>
-      <c r="E21" s="29" t="s">
+      <c r="E21" s="31" t="s">
         <v>108</v>
       </c>
       <c r="F21" s="29"/>
@@ -1612,41 +1639,73 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
+      <c r="A22" s="29">
+        <v>2</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="27">
+        <v>3.6</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>119</v>
+      </c>
       <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="28"/>
+      <c r="G22" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" s="28">
+        <v>1</v>
+      </c>
       <c r="J22" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" s="28">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+      <c r="A23" s="29">
+        <v>2</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="27">
+        <v>1.94</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>123</v>
+      </c>
       <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="28"/>
+      <c r="G23" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I23" s="28">
+        <v>1</v>
+      </c>
       <c r="J23" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23" s="28">
         <f>J23*D23</f>
-        <v>0</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -20204,6 +20263,11 @@
     <hyperlink ref="E7" r:id="rId23" xr:uid="{1631215A-648B-47D2-9E16-3378AF6A2FCA}"/>
     <hyperlink ref="E6" r:id="rId24" xr:uid="{F9C48F87-B949-497A-BEF6-E2E32E12AC07}"/>
     <hyperlink ref="H6" r:id="rId25" xr:uid="{92CFB618-DB03-47DC-8056-C042921B1798}"/>
+    <hyperlink ref="E20" r:id="rId26" xr:uid="{E4E10181-3531-49A2-BDDB-D58398CB3A73}"/>
+    <hyperlink ref="E19" r:id="rId27" xr:uid="{4162E094-2CCA-4900-A73C-FB61512403D4}"/>
+    <hyperlink ref="E21" r:id="rId28" xr:uid="{08F6B92E-E585-45F0-8B4E-DE3B0BEE0AAD}"/>
+    <hyperlink ref="E22" r:id="rId29" xr:uid="{FCD33A3C-B975-424E-9F39-F669205479DE}"/>
+    <hyperlink ref="E23" r:id="rId30" xr:uid="{8EE4FA0F-5C45-4F23-A5AD-19AC8B0FAE2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
